--- a/September 1 Week Report 2023.xlsx
+++ b/September 1 Week Report 2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dieboldnixdorf-my.sharepoint.com/personal/sanjay_aluru_dieboldnixdorf_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="643" documentId="11_C5D81853923D8C50D346F3254C2AAF8F0AAFCE97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73F396C5-87AA-47EE-B49D-508DD8A5B85D}"/>
+  <xr:revisionPtr revIDLastSave="680" documentId="13_ncr:1_{D7AFE068-865D-477C-8FF9-75B577AF4196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ADE58D5-CB0E-4933-A82A-02FC60B7CEFA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="Farmers List" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Farmers List'!$B$4:$O$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Farmers List'!$B$4:$O$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="274">
   <si>
     <t>CONTACT NO</t>
   </si>
@@ -413,418 +413,475 @@
     <t>perupalem</t>
   </si>
   <si>
-    <t>pandu p</t>
+    <t>sidhi sai babu</t>
+  </si>
+  <si>
+    <t>yedukondalu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandhya </t>
+  </si>
+  <si>
+    <t>modi</t>
+  </si>
+  <si>
+    <t>subba rao</t>
+  </si>
+  <si>
+    <t>manindra</t>
+  </si>
+  <si>
+    <t>avanti</t>
+  </si>
+  <si>
+    <t>thurputhallu</t>
+  </si>
+  <si>
+    <t>pm lanka</t>
+  </si>
+  <si>
+    <t>tataya</t>
+  </si>
+  <si>
+    <t>naga raju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">venkanna </t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>karimsetti palem</t>
+  </si>
+  <si>
+    <t>k bobby</t>
+  </si>
+  <si>
+    <t>venkateswara rao</t>
+  </si>
+  <si>
+    <t>satyanarayana</t>
+  </si>
+  <si>
+    <t>subramanyam</t>
+  </si>
+  <si>
+    <t>bobby k</t>
+  </si>
+  <si>
+    <t>metrevu</t>
+  </si>
+  <si>
+    <t>prasad</t>
+  </si>
+  <si>
+    <t>konda</t>
+  </si>
+  <si>
+    <t>buchi babu</t>
+  </si>
+  <si>
+    <t>pasaladeevi</t>
+  </si>
+  <si>
+    <t>exiting</t>
+  </si>
+  <si>
+    <t>narasaiyya</t>
+  </si>
+  <si>
+    <t>kodapa</t>
+  </si>
+  <si>
+    <t>malu</t>
+  </si>
+  <si>
+    <t>babu k</t>
+  </si>
+  <si>
+    <t>I feed</t>
+  </si>
+  <si>
+    <t>pueushotham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">K. Venkateswarao </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karimsetti palem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srinivasa Aqua Feeds </t>
+  </si>
+  <si>
+    <t>A.Satish babu</t>
+  </si>
+  <si>
+    <t>P Srinu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thurputhallu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perupalem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanmukha Enterprises </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm lanka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srinivasa aqua feeds </t>
+  </si>
+  <si>
+    <t>active seed</t>
+  </si>
+  <si>
+    <t>kondeti naga babu</t>
+  </si>
+  <si>
+    <t>chamkuri palem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mollaparru </t>
+  </si>
+  <si>
+    <t>25/6/2023</t>
+  </si>
+  <si>
+    <t>Srinivasa Aqua Feeds (Thurputhallu)</t>
+  </si>
+  <si>
+    <t>shivaji</t>
+  </si>
+  <si>
+    <t>allam mohan</t>
+  </si>
+  <si>
+    <t>kumar</t>
+  </si>
+  <si>
+    <t>evvana balaji</t>
+  </si>
+  <si>
+    <t>18/7/2023</t>
+  </si>
+  <si>
+    <t>B.Satyanarayana sir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanmukha enterprises </t>
+  </si>
+  <si>
+    <t>kondeti murali</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>Sr.TSO</t>
+  </si>
+  <si>
+    <t>karadi naga raju</t>
+  </si>
+  <si>
+    <t>swammy naidu</t>
+  </si>
+  <si>
+    <t>sunkarapu krishnam raju</t>
+  </si>
+  <si>
+    <t>chamkuriaplem</t>
+  </si>
+  <si>
+    <t>vemuladeevi</t>
+  </si>
+  <si>
+    <t>murahari</t>
+  </si>
+  <si>
+    <t>bokka harush</t>
+  </si>
+  <si>
+    <t>marraju</t>
+  </si>
+  <si>
+    <t>devi</t>
+  </si>
+  <si>
+    <t>dhonga swammy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hari chandra </t>
+  </si>
+  <si>
+    <t>9493998541</t>
+  </si>
+  <si>
+    <t>jaya krishna</t>
+  </si>
+  <si>
+    <t>chamkuri jaya krishna</t>
+  </si>
+  <si>
+    <t>21/8/2023</t>
+  </si>
+  <si>
+    <t>19/8/2023</t>
+  </si>
+  <si>
+    <t>satheneni pandu</t>
+  </si>
+  <si>
+    <t>14/9/2023</t>
+  </si>
+  <si>
+    <t>kotikalapudi babi</t>
+  </si>
+  <si>
+    <t>sunkarapu nagaraju</t>
+  </si>
+  <si>
+    <t>karimsetti venkateswarlu</t>
+  </si>
+  <si>
+    <t>25/9/2023</t>
+  </si>
+  <si>
+    <t>28/9/2023</t>
+  </si>
+  <si>
+    <t>kp palem</t>
+  </si>
+  <si>
+    <t>konda babu</t>
+  </si>
+  <si>
+    <t>praveen</t>
+  </si>
+  <si>
+    <t>mutylapalli</t>
+  </si>
+  <si>
+    <t>srinivasa</t>
+  </si>
+  <si>
+    <t>sailesh kuamr</t>
+  </si>
+  <si>
+    <t>pulla rao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compilation </t>
+  </si>
+  <si>
+    <t>ungarala nageswar rao</t>
+  </si>
+  <si>
+    <t>satheneni babji</t>
+  </si>
+  <si>
+    <t>challa sankaram</t>
+  </si>
+  <si>
+    <t>siva raj</t>
+  </si>
+  <si>
+    <t>chowdhula abbulu</t>
+  </si>
+  <si>
+    <t>thanukula kishore</t>
+  </si>
+  <si>
+    <t>pulaparthi rambabu</t>
+  </si>
+  <si>
+    <t>mellam bhanu</t>
+  </si>
+  <si>
+    <t>akam durga rao</t>
+  </si>
+  <si>
+    <t>pollisetti chintha rao</t>
+  </si>
+  <si>
+    <t>sunkaraparu naga raju</t>
+  </si>
+  <si>
+    <t>kvv satyanarayana</t>
+  </si>
+  <si>
+    <t>karimsetti shyam</t>
+  </si>
+  <si>
+    <t>18/9/2023</t>
+  </si>
+  <si>
+    <t>21/9/2023</t>
+  </si>
+  <si>
+    <t>size variation</t>
+  </si>
+  <si>
+    <t>chinimilli surayanarayana</t>
+  </si>
+  <si>
+    <t>chamkuri pedhi raju</t>
+  </si>
+  <si>
+    <t>19/10/2023</t>
+  </si>
+  <si>
+    <t>mukku rathayya</t>
+  </si>
+  <si>
+    <t>chinimili surya narayana</t>
+  </si>
+  <si>
+    <t>andhe buchi babu</t>
+  </si>
+  <si>
+    <t>23/10/2023</t>
+  </si>
+  <si>
+    <t>24/10/2023</t>
+  </si>
+  <si>
+    <t>gubbala durga prasad</t>
+  </si>
+  <si>
+    <t>dhonga nara shimha swammy</t>
+  </si>
+  <si>
+    <t>ungarala rama dasu</t>
+  </si>
+  <si>
+    <t>vemuladhevvi</t>
+  </si>
+  <si>
+    <t>jalli venkata ramana</t>
+  </si>
+  <si>
+    <t>kottu venkanna</t>
+  </si>
+  <si>
+    <t>kondeti nani</t>
+  </si>
+  <si>
+    <t>22/10/2023</t>
+  </si>
+  <si>
+    <t>23/9/2023</t>
+  </si>
+  <si>
+    <t>22/9/2023</t>
+  </si>
+  <si>
+    <t>rms</t>
+  </si>
+  <si>
+    <t>white gut</t>
+  </si>
+  <si>
+    <t>high ph</t>
+  </si>
+  <si>
+    <t>bottom issue</t>
+  </si>
+  <si>
+    <t>white muscle</t>
+  </si>
+  <si>
+    <t>30/10/2023</t>
+  </si>
+  <si>
+    <t>31/10/2023</t>
+  </si>
+  <si>
+    <t>rama naidu</t>
+  </si>
+  <si>
+    <t>babji</t>
   </si>
   <si>
     <t>ganapathi</t>
   </si>
   <si>
+    <t>satish</t>
+  </si>
+  <si>
     <t>mollaparru</t>
   </si>
   <si>
-    <t>sidhi sai babu</t>
-  </si>
-  <si>
-    <t>yedukondalu</t>
-  </si>
-  <si>
-    <t>s pandu</t>
+    <t>AFTERNOON SESSION</t>
+  </si>
+  <si>
+    <t>srinu</t>
   </si>
   <si>
     <t>abbulu</t>
   </si>
   <si>
-    <t>ch konda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandhya </t>
-  </si>
-  <si>
-    <t>modi</t>
-  </si>
-  <si>
-    <t>subba rao</t>
-  </si>
-  <si>
-    <t>manindra</t>
-  </si>
-  <si>
-    <t>avanti</t>
-  </si>
-  <si>
-    <t>thurputhallu</t>
-  </si>
-  <si>
-    <t>pm lanka</t>
-  </si>
-  <si>
-    <t>tataya</t>
-  </si>
-  <si>
-    <t>naga raju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">venkanna </t>
-  </si>
-  <si>
-    <t>cp</t>
-  </si>
-  <si>
-    <t>karimsetti palem</t>
-  </si>
-  <si>
-    <t>k bobby</t>
-  </si>
-  <si>
-    <t>venkateswara rao</t>
-  </si>
-  <si>
-    <t>satyanarayana</t>
-  </si>
-  <si>
-    <t>subramanyam</t>
-  </si>
-  <si>
-    <t>bobby k</t>
-  </si>
-  <si>
-    <t>metrevu</t>
-  </si>
-  <si>
-    <t>prasad</t>
-  </si>
-  <si>
-    <t>konda</t>
-  </si>
-  <si>
-    <t>buchi babu</t>
-  </si>
-  <si>
-    <t>pasaladeevi</t>
-  </si>
-  <si>
-    <t>exiting</t>
-  </si>
-  <si>
-    <t>narasaiyya</t>
-  </si>
-  <si>
-    <t>kodapa</t>
-  </si>
-  <si>
-    <t>malu</t>
-  </si>
-  <si>
-    <t>ch srinu</t>
-  </si>
-  <si>
-    <t>babu k</t>
-  </si>
-  <si>
-    <t>I feed</t>
-  </si>
-  <si>
-    <t>kp palem</t>
-  </si>
-  <si>
-    <t>konda babu</t>
-  </si>
-  <si>
-    <t>praveen</t>
-  </si>
-  <si>
-    <t>mutylapalli</t>
-  </si>
-  <si>
-    <t>srinivasa</t>
-  </si>
-  <si>
-    <t>sailesh kuamr</t>
-  </si>
-  <si>
-    <t>pulla rao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compilation </t>
-  </si>
-  <si>
-    <t>pueushotham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">K. Venkateswarao </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karimsetti palem </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srinivasa Aqua Feeds </t>
-  </si>
-  <si>
-    <t>A.Satish babu</t>
-  </si>
-  <si>
-    <t>P Srinu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thurputhallu </t>
-  </si>
-  <si>
-    <t>Chowdhula abbulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perupalem </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shanmukha Enterprises </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm lanka </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srinivasa aqua feeds </t>
-  </si>
-  <si>
-    <t>active seed</t>
-  </si>
-  <si>
-    <t>kondeti naga babu</t>
-  </si>
-  <si>
-    <t>chamkuri palem</t>
-  </si>
-  <si>
-    <t>dhonga narashimha swammy</t>
-  </si>
-  <si>
-    <t>ram dasu ungalara</t>
-  </si>
-  <si>
-    <t>vemuladheevi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mollaparru </t>
-  </si>
-  <si>
-    <t>satheneni babji</t>
-  </si>
-  <si>
-    <t>25/6/2023</t>
-  </si>
-  <si>
-    <t>thirumani srinu</t>
-  </si>
-  <si>
-    <t>30/6/2023</t>
-  </si>
-  <si>
-    <t>Srinivasa Aqua Feeds (Thurputhallu)</t>
-  </si>
-  <si>
-    <t>satish</t>
-  </si>
-  <si>
-    <t>shivaji</t>
-  </si>
-  <si>
-    <t>allam mohan</t>
-  </si>
-  <si>
-    <t>kumar</t>
+    <t>puthenei pandu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bobby karimsetti </t>
+  </si>
+  <si>
+    <t>pulaparthi rambbau</t>
   </si>
   <si>
     <t>evvana shivaji</t>
   </si>
   <si>
-    <t>13/7/2023</t>
-  </si>
-  <si>
-    <t>kondeti tataji</t>
-  </si>
-  <si>
-    <t>evvana balaji</t>
-  </si>
-  <si>
-    <t>18/7/2023</t>
-  </si>
-  <si>
-    <t>28/6/2023</t>
-  </si>
-  <si>
-    <t>B.Satyanarayana sir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shanmukha enterprises </t>
-  </si>
-  <si>
-    <t>kondeti murali</t>
-  </si>
-  <si>
-    <t>laxaman</t>
-  </si>
-  <si>
-    <t>ungarala nageswara rao</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>pardhu</t>
-  </si>
-  <si>
-    <t>Sr.TSO</t>
-  </si>
-  <si>
-    <t>pulaparthi pandu</t>
-  </si>
-  <si>
-    <t>chamkuri sai</t>
-  </si>
-  <si>
-    <t>chamkuri subbramanyam</t>
-  </si>
-  <si>
-    <t>karadi naga raju</t>
-  </si>
-  <si>
-    <t>addala baskar rao</t>
-  </si>
-  <si>
-    <t>ungarala phni naidu</t>
-  </si>
-  <si>
-    <t>swammy naidu</t>
-  </si>
-  <si>
-    <t>ambati ganapathi</t>
-  </si>
-  <si>
-    <t>sunkarapu krishnam raju</t>
+    <t>pulaparthi satyanarayana</t>
+  </si>
+  <si>
+    <t>kotikalapudu bobby</t>
+  </si>
+  <si>
+    <t>chinimili konda</t>
+  </si>
+  <si>
+    <t>padmaji rao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4/11/2023</t>
+  </si>
+  <si>
+    <t>30/10/23 To 4/11/23</t>
   </si>
   <si>
     <t>karimsetti prasad</t>
   </si>
   <si>
-    <t>chamkuriaplem</t>
-  </si>
-  <si>
-    <t>vemuladeevi</t>
-  </si>
-  <si>
-    <t>murahari</t>
-  </si>
-  <si>
-    <t>bokka harush</t>
-  </si>
-  <si>
-    <t>marraju</t>
-  </si>
-  <si>
-    <t>devi</t>
-  </si>
-  <si>
-    <t>dhonga swammy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hari chandra </t>
-  </si>
-  <si>
-    <t>9493998541</t>
-  </si>
-  <si>
-    <t>jaya krishna</t>
-  </si>
-  <si>
-    <t>kvr</t>
-  </si>
-  <si>
-    <t>chamkuri jaya krishna</t>
-  </si>
-  <si>
-    <t>21/8/2023</t>
-  </si>
-  <si>
-    <t>19/8/2023</t>
-  </si>
-  <si>
-    <t>rms</t>
-  </si>
-  <si>
-    <t>muchula satyanrayana</t>
-  </si>
-  <si>
-    <t>dhanukondaka muchula</t>
-  </si>
-  <si>
-    <t>sunkarapu tataya</t>
-  </si>
-  <si>
-    <t>satheneni pandu</t>
-  </si>
-  <si>
-    <t>bnv satyanarayna</t>
-  </si>
-  <si>
-    <t>28/8/2023</t>
-  </si>
-  <si>
-    <t>19/7/2023</t>
-  </si>
-  <si>
-    <t>14/9/2023</t>
-  </si>
-  <si>
-    <t>4/09/23 To 09/09/23</t>
-  </si>
-  <si>
-    <t>suresh</t>
-  </si>
-  <si>
-    <t>bobby karimsetti</t>
-  </si>
-  <si>
-    <t>chaitanya</t>
-  </si>
-  <si>
-    <t>mallula anand</t>
-  </si>
-  <si>
-    <t>shiva varma</t>
-  </si>
-  <si>
-    <t>bunga maneshe</t>
-  </si>
-  <si>
-    <t>kumar valalavala</t>
-  </si>
-  <si>
-    <t>andraju srinu</t>
-  </si>
-  <si>
-    <t>chowdhula abbulu</t>
-  </si>
-  <si>
-    <t>mokka arjun rao</t>
-  </si>
-  <si>
-    <t>lingam krishna</t>
-  </si>
-  <si>
-    <t>kotikalapudi babi</t>
-  </si>
-  <si>
-    <t>sunkarapu nagaraju</t>
-  </si>
-  <si>
-    <t>serepalem</t>
-  </si>
-  <si>
-    <t>16/7/2023</t>
-  </si>
-  <si>
-    <t>30/8/2023</t>
+    <t>karimsetti krishna</t>
+  </si>
+  <si>
+    <t>13/9/2023</t>
+  </si>
+  <si>
+    <t>14/10/2023</t>
+  </si>
+  <si>
+    <t>karimsetti satyanaryana</t>
+  </si>
+  <si>
+    <t>3//10/2023</t>
+  </si>
+  <si>
+    <t>WSSV</t>
+  </si>
+  <si>
+    <t>andhe swammy</t>
+  </si>
+  <si>
+    <t>25/8/2023</t>
   </si>
 </sst>
 </file>
@@ -837,7 +894,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1008,13 +1065,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1063,11 +1113,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -1079,8 +1124,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1129,8 +1194,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1275,6 +1346,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1283,7 +1402,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1625,9 +1744,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="25" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1647,12 +1763,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1663,9 +1773,6 @@
     <xf numFmtId="0" fontId="25" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1673,7 +1780,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1690,163 +1797,135 @@
     <xf numFmtId="14" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="33" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="33" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="36" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1905,10 +1984,57 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="41" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="42" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="42" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2224,1802 +2350,1808 @@
   <dimension ref="B2:L86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O84" sqref="O84"/>
+      <selection activeCell="S61" sqref="S61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="155" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="155" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="155" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="155" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="155" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="155" customWidth="1"/>
-    <col min="7" max="7" width="33" style="155" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="155" customWidth="1"/>
-    <col min="9" max="11" width="11.42578125" style="155" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" style="155" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="155"/>
+    <col min="1" max="1" width="4.42578125" style="149" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="149" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="149" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="149" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="149" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="149" customWidth="1"/>
+    <col min="7" max="7" width="33" style="149" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="149" customWidth="1"/>
+    <col min="9" max="11" width="11.42578125" style="149" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" style="149" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="149"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="151" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="145"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146" t="s">
+    <row r="2" spans="2:12" s="145" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="141"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="147">
-        <v>45025</v>
-      </c>
-      <c r="J2" s="148" t="s">
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="203" t="s">
+        <v>245</v>
+      </c>
+      <c r="J2" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="149">
-        <v>45178</v>
-      </c>
-      <c r="L2" s="150"/>
+      <c r="K2" s="204" t="s">
+        <v>263</v>
+      </c>
+      <c r="L2" s="144"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="153"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153" t="s">
+      <c r="C3" s="147"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="154"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="148"/>
     </row>
     <row r="4" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="153"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153" t="s">
+      <c r="C4" s="147"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="154"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="148"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="153"/>
-      <c r="L5" s="154"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="148"/>
     </row>
     <row r="6" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="152" t="s">
+      <c r="B6" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="153"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153" t="s">
+      <c r="C6" s="147"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="153"/>
-      <c r="L6" s="154"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="148"/>
     </row>
     <row r="7" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="156" t="s">
-        <v>197</v>
-      </c>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="154"/>
-    </row>
-    <row r="8" spans="2:12" s="160" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="157" t="s">
+      <c r="C7" s="147"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="150" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="148"/>
+    </row>
+    <row r="8" spans="2:12" s="154" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="158" t="s">
+      <c r="D8" s="152" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="158" t="s">
+      <c r="E8" s="152" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="158" t="s">
+      <c r="F8" s="152" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="158" t="s">
+      <c r="G8" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="158" t="s">
+      <c r="H8" s="152" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="158" t="s">
+      <c r="I8" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="158" t="s">
+      <c r="J8" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="158" t="s">
+      <c r="K8" s="152" t="s">
         <v>79</v>
       </c>
-      <c r="L8" s="159" t="s">
+      <c r="L8" s="153" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:12" s="151" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="161"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="163" t="s">
+    <row r="9" spans="2:12" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="155"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="157" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="164"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="165"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="159"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="159"/>
     </row>
     <row r="10" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="166"/>
-      <c r="C10" s="167" t="s">
+      <c r="B10" s="160"/>
+      <c r="C10" s="197" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="209" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" s="168">
+      <c r="D10" s="197" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" s="118">
         <v>9704782802</v>
       </c>
-      <c r="F10" s="169" t="s">
+      <c r="F10" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="118" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="164"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+    </row>
+    <row r="11" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="160"/>
+      <c r="C11" s="197" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="197" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11" s="118">
+        <v>9963559199</v>
+      </c>
+      <c r="F11" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="168" t="s">
+      <c r="G11" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="170"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="171"/>
-      <c r="K10" s="171"/>
-      <c r="L10" s="171"/>
-    </row>
-    <row r="11" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="166"/>
-      <c r="C11" s="167" t="s">
+      <c r="H11" s="164"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="165"/>
+      <c r="K11" s="165"/>
+      <c r="L11" s="165"/>
+    </row>
+    <row r="12" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="199" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" s="197" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="197" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" s="118">
+        <v>9441171757</v>
+      </c>
+      <c r="F12" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="118" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="164"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="165"/>
+    </row>
+    <row r="13" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="160"/>
+      <c r="C13" s="197" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="197" t="s">
+        <v>250</v>
+      </c>
+      <c r="E13" s="120">
+        <v>8179509430</v>
+      </c>
+      <c r="F13" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="118" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="162"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="165"/>
+      <c r="K13" s="165"/>
+      <c r="L13" s="165"/>
+    </row>
+    <row r="14" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="160"/>
+      <c r="C14" s="197" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" s="197" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="209">
+        <v>9963795406</v>
+      </c>
+      <c r="F14" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="118" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="164"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+    </row>
+    <row r="15" spans="2:12" s="145" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="155"/>
+      <c r="C15" s="210" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="211"/>
+      <c r="E15" s="211"/>
+      <c r="F15" s="212"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="159"/>
+    </row>
+    <row r="16" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="160"/>
+      <c r="C16" s="198" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" s="198" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16" s="120">
+        <v>9441150006</v>
+      </c>
+      <c r="F16" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="118" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="167"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+    </row>
+    <row r="17" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="160"/>
+      <c r="C17" s="198" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="167" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="168">
-        <v>9963559199</v>
-      </c>
-      <c r="F11" s="169" t="s">
+      <c r="D17" s="121" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="118">
+        <v>9492581981</v>
+      </c>
+      <c r="F17" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="168" t="s">
+      <c r="G17" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="H11" s="170"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="171"/>
-      <c r="L11" s="171"/>
-    </row>
-    <row r="12" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="166">
-        <v>45025</v>
-      </c>
-      <c r="C12" s="167" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="167" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="168">
-        <v>9441171757</v>
-      </c>
-      <c r="F12" s="169" t="s">
+      <c r="H17" s="164"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="165"/>
+    </row>
+    <row r="18" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="160"/>
+      <c r="C18" s="198" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="198" t="s">
+        <v>254</v>
+      </c>
+      <c r="E18" s="120">
+        <v>9493998541</v>
+      </c>
+      <c r="F18" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="168" t="s">
+      <c r="G18" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="170"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="171"/>
-      <c r="L12" s="171"/>
-    </row>
-    <row r="13" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="166"/>
-      <c r="C13" s="167" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="167" t="s">
-        <v>187</v>
-      </c>
-      <c r="E13" s="172">
-        <v>8179509430</v>
-      </c>
-      <c r="F13" s="169" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="168" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="168"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="171"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="171"/>
-    </row>
-    <row r="14" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="166"/>
-      <c r="C14" s="167" t="s">
+      <c r="H18" s="162"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+    </row>
+    <row r="19" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="160"/>
+      <c r="C19" s="198" t="s">
+        <v>251</v>
+      </c>
+      <c r="D19" s="198" t="s">
+        <v>255</v>
+      </c>
+      <c r="E19" s="118">
+        <v>7036771489</v>
+      </c>
+      <c r="F19" s="118" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="167" t="s">
+      <c r="G19" s="118" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="162"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+    </row>
+    <row r="20" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="160"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="168">
+        <v>44635</v>
+      </c>
+      <c r="J20" s="168">
+        <v>44688</v>
+      </c>
+      <c r="K20" s="168">
+        <f>J20-I20</f>
+        <v>53</v>
+      </c>
+      <c r="L20" s="165"/>
+    </row>
+    <row r="21" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="160"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+    </row>
+    <row r="22" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="155"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="157" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="158"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="159"/>
+      <c r="L22" s="159"/>
+    </row>
+    <row r="23" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="160"/>
+      <c r="C23" s="184" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="173">
-        <v>9963795406</v>
-      </c>
-      <c r="F14" s="169" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="H14" s="170"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="171"/>
-      <c r="K14" s="171"/>
-      <c r="L14" s="171"/>
-    </row>
-    <row r="15" spans="2:12" s="151" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="161"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="163" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="164"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="165"/>
-    </row>
-    <row r="16" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="166"/>
-      <c r="C16" s="174" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="210" t="s">
-        <v>239</v>
-      </c>
-      <c r="E16" s="172">
-        <v>9441150006</v>
-      </c>
-      <c r="F16" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" s="175"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="171"/>
-      <c r="K16" s="171"/>
-      <c r="L16" s="171"/>
-    </row>
-    <row r="17" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="166"/>
-      <c r="C17" s="174" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="176" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="168">
-        <v>9492581981</v>
-      </c>
-      <c r="F17" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" s="170"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="171"/>
-    </row>
-    <row r="18" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="166"/>
-      <c r="C18" s="174" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="174" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="172">
-        <v>9493998541</v>
-      </c>
-      <c r="F18" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="168"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="171"/>
-      <c r="K18" s="171"/>
-      <c r="L18" s="171"/>
-    </row>
-    <row r="19" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="166"/>
-      <c r="C19" s="174" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="168">
-        <v>7036771489</v>
-      </c>
-      <c r="F19" s="168" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="168"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="171"/>
-      <c r="K19" s="171"/>
-      <c r="L19" s="171"/>
-    </row>
-    <row r="20" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="166"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="177">
-        <v>42359</v>
-      </c>
-      <c r="J20" s="177">
-        <v>42415</v>
-      </c>
-      <c r="K20" s="177">
-        <f>J20-I20</f>
-        <v>56</v>
-      </c>
-      <c r="L20" s="171"/>
-    </row>
-    <row r="21" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="166"/>
-      <c r="C21" s="171"/>
-      <c r="D21" s="171"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
-      <c r="K21" s="171"/>
-      <c r="L21" s="171"/>
-    </row>
-    <row r="22" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="161"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="163" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="164"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="165"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="165"/>
-      <c r="L22" s="165"/>
-    </row>
-    <row r="23" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="166"/>
-      <c r="C23" s="196" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="197" t="s">
-        <v>240</v>
+      <c r="D23" s="185" t="s">
+        <v>256</v>
       </c>
       <c r="E23" s="122">
         <v>9704782802</v>
       </c>
-      <c r="F23" s="198" t="s">
+      <c r="F23" s="186" t="s">
         <v>110</v>
       </c>
       <c r="G23" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="H23" s="168"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="171"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="171"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
     </row>
     <row r="24" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="166"/>
-      <c r="C24" s="196" t="s">
-        <v>215</v>
-      </c>
-      <c r="D24" s="197" t="s">
-        <v>128</v>
+      <c r="B24" s="160"/>
+      <c r="C24" s="184" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="185" t="s">
+        <v>122</v>
       </c>
       <c r="E24" s="122">
         <v>9963559199</v>
       </c>
-      <c r="F24" s="198" t="s">
-        <v>125</v>
+      <c r="F24" s="186" t="s">
+        <v>119</v>
       </c>
       <c r="G24" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="H24" s="168"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
-      <c r="K24" s="171"/>
-      <c r="L24" s="171"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="165"/>
+      <c r="L24" s="165"/>
     </row>
     <row r="25" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="166">
-        <v>45055</v>
-      </c>
-      <c r="C25" s="199" t="s">
-        <v>216</v>
-      </c>
-      <c r="D25" s="199" t="s">
-        <v>217</v>
-      </c>
-      <c r="E25" s="200">
+      <c r="B25" s="199" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" s="187" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="187" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="188">
         <v>9441171757</v>
       </c>
-      <c r="F25" s="198" t="s">
-        <v>129</v>
+      <c r="F25" s="186" t="s">
+        <v>123</v>
       </c>
       <c r="G25" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="168"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="171"/>
-      <c r="K25" s="171"/>
-      <c r="L25" s="171"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
     </row>
     <row r="26" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="166"/>
+      <c r="B26" s="160"/>
       <c r="C26" s="121" t="s">
-        <v>215</v>
-      </c>
-      <c r="D26" s="199" t="s">
-        <v>218</v>
+        <v>178</v>
+      </c>
+      <c r="D26" s="187" t="s">
+        <v>181</v>
       </c>
       <c r="E26" s="118">
         <v>8179509430</v>
       </c>
-      <c r="F26" s="198" t="s">
-        <v>129</v>
+      <c r="F26" s="186" t="s">
+        <v>123</v>
       </c>
       <c r="G26" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="168"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="171"/>
-      <c r="K26" s="171"/>
-      <c r="L26" s="171"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="165"/>
+      <c r="L26" s="165"/>
     </row>
     <row r="27" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="166"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="121" t="s">
-        <v>216</v>
-      </c>
-      <c r="D27" s="199" t="s">
-        <v>219</v>
+        <v>179</v>
+      </c>
+      <c r="D27" s="187" t="s">
+        <v>182</v>
       </c>
       <c r="E27" s="118">
         <v>9963795406</v>
       </c>
-      <c r="F27" s="198" t="s">
-        <v>220</v>
+      <c r="F27" s="186" t="s">
+        <v>183</v>
       </c>
       <c r="G27" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="H27" s="168"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="171"/>
-      <c r="K27" s="171"/>
-      <c r="L27" s="171"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="165"/>
+      <c r="L27" s="165"/>
     </row>
     <row r="28" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="161"/>
-      <c r="C28" s="201"/>
-      <c r="D28" s="202" t="s">
+      <c r="B28" s="155"/>
+      <c r="C28" s="189"/>
+      <c r="D28" s="190" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="203"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="165"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="165"/>
-      <c r="L28" s="165"/>
+      <c r="E28" s="191"/>
+      <c r="F28" s="192"/>
+      <c r="G28" s="192"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="159"/>
+      <c r="L28" s="159"/>
     </row>
     <row r="29" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="166"/>
-      <c r="C29" s="196" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="197" t="s">
-        <v>241</v>
-      </c>
-      <c r="E29" s="205">
+      <c r="B29" s="160"/>
+      <c r="C29" s="184" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="185" t="s">
+        <v>257</v>
+      </c>
+      <c r="E29" s="193">
         <v>944115006</v>
       </c>
-      <c r="F29" s="198" t="s">
+      <c r="F29" s="186" t="s">
         <v>110</v>
       </c>
       <c r="G29" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="H29" s="168"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="171"/>
-      <c r="L29" s="171"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
     </row>
     <row r="30" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="166"/>
-      <c r="C30" s="196" t="s">
-        <v>215</v>
-      </c>
-      <c r="D30" s="199" t="s">
-        <v>221</v>
-      </c>
-      <c r="E30" s="206">
+      <c r="B30" s="160"/>
+      <c r="C30" s="184" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="187" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30" s="194">
         <v>9492581381</v>
       </c>
-      <c r="F30" s="198" t="s">
+      <c r="F30" s="186" t="s">
         <v>110</v>
       </c>
       <c r="G30" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="H30" s="168"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="171"/>
-      <c r="K30" s="171"/>
-      <c r="L30" s="171"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="165"/>
+      <c r="L30" s="165"/>
     </row>
     <row r="31" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="166"/>
-      <c r="C31" s="207" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="199" t="s">
-        <v>222</v>
-      </c>
-      <c r="E31" s="208" t="s">
-        <v>223</v>
-      </c>
-      <c r="F31" s="198" t="s">
-        <v>129</v>
+      <c r="B31" s="160"/>
+      <c r="C31" s="195" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="187" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="196" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="186" t="s">
+        <v>123</v>
       </c>
       <c r="G31" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="H31" s="168"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="171"/>
-      <c r="K31" s="171"/>
-      <c r="L31" s="171"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="165"/>
+      <c r="L31" s="165"/>
     </row>
     <row r="32" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="166"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="121" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="199" t="s">
-        <v>224</v>
+        <v>120</v>
+      </c>
+      <c r="D32" s="187" t="s">
+        <v>187</v>
       </c>
       <c r="E32" s="118">
         <v>7036771489</v>
       </c>
-      <c r="F32" s="198" t="s">
+      <c r="F32" s="186" t="s">
         <v>110</v>
       </c>
       <c r="G32" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="H32" s="168"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="171"/>
-      <c r="K32" s="171"/>
-      <c r="L32" s="171"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="168"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="165"/>
+      <c r="L32" s="165"/>
     </row>
     <row r="33" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="166"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="177">
-        <v>42415</v>
-      </c>
-      <c r="J33" s="177">
-        <v>42467</v>
-      </c>
-      <c r="K33" s="177">
+      <c r="B33" s="160"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="168">
+        <v>44688</v>
+      </c>
+      <c r="J33" s="168">
+        <v>44734</v>
+      </c>
+      <c r="K33" s="168">
         <f>J33-I33</f>
-        <v>52</v>
-      </c>
-      <c r="L33" s="171"/>
+        <v>46</v>
+      </c>
+      <c r="L33" s="165"/>
     </row>
     <row r="34" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="166"/>
-      <c r="C34" s="171"/>
-      <c r="D34" s="171"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="171"/>
-      <c r="G34" s="171"/>
-      <c r="H34" s="171"/>
-      <c r="I34" s="171"/>
-      <c r="J34" s="171"/>
-      <c r="K34" s="171"/>
-      <c r="L34" s="171"/>
+      <c r="B34" s="160"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
+      <c r="K34" s="165"/>
+      <c r="L34" s="165"/>
     </row>
     <row r="35" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="161"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="163" t="s">
+      <c r="B35" s="155"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="157" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="164"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="165"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165"/>
-      <c r="K35" s="165"/>
-      <c r="L35" s="165"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="159"/>
+      <c r="J35" s="159"/>
+      <c r="K35" s="159"/>
+      <c r="L35" s="159"/>
     </row>
     <row r="36" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="166"/>
-      <c r="C36" s="183" t="s">
+      <c r="B36" s="160"/>
+      <c r="C36" s="171" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="187" t="s">
+        <v>258</v>
+      </c>
+      <c r="E36" s="162">
+        <v>9457116871</v>
+      </c>
+      <c r="F36" s="162" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="162" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" s="162"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="165"/>
+      <c r="K36" s="165"/>
+      <c r="L36" s="162"/>
+    </row>
+    <row r="37" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="160"/>
+      <c r="C37" s="161" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="173" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="174">
+        <v>9989290928</v>
+      </c>
+      <c r="F37" s="162" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="162" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" s="162"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="165"/>
+      <c r="K37" s="165"/>
+      <c r="L37" s="165"/>
+    </row>
+    <row r="38" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="199">
+        <v>44937</v>
+      </c>
+      <c r="C38" s="175" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="176" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="166">
+        <v>9542102109</v>
+      </c>
+      <c r="F38" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" s="162" t="s">
+        <v>115</v>
+      </c>
+      <c r="H38" s="162"/>
+      <c r="I38" s="165"/>
+      <c r="J38" s="165"/>
+      <c r="K38" s="165"/>
+      <c r="L38" s="165"/>
+    </row>
+    <row r="39" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="160"/>
+      <c r="C39" s="175" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="176" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="162">
+        <v>9948375463</v>
+      </c>
+      <c r="F39" s="162" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" s="162" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39" s="162"/>
+      <c r="I39" s="165"/>
+      <c r="J39" s="165"/>
+      <c r="K39" s="165"/>
+      <c r="L39" s="165"/>
+    </row>
+    <row r="40" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="160"/>
+      <c r="C40" s="175" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="175" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" s="166">
+        <v>9948759651</v>
+      </c>
+      <c r="F40" s="166" t="s">
+        <v>129</v>
+      </c>
+      <c r="G40" s="162" t="s">
+        <v>109</v>
+      </c>
+      <c r="H40" s="162"/>
+      <c r="I40" s="165"/>
+      <c r="J40" s="165"/>
+      <c r="K40" s="165"/>
+      <c r="L40" s="162"/>
+    </row>
+    <row r="41" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="155"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="157" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="158"/>
+      <c r="F41" s="159"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="159"/>
+      <c r="I41" s="159"/>
+      <c r="J41" s="159"/>
+      <c r="K41" s="159"/>
+      <c r="L41" s="159"/>
+    </row>
+    <row r="42" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="160"/>
+      <c r="C42" s="161" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="199" t="s">
-        <v>221</v>
-      </c>
-      <c r="E36" s="168">
+      <c r="D42" s="123" t="s">
+        <v>217</v>
+      </c>
+      <c r="E42" s="174">
+        <v>9542102109</v>
+      </c>
+      <c r="F42" s="172" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42" s="162" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" s="177"/>
+      <c r="I42" s="165"/>
+      <c r="J42" s="165"/>
+      <c r="K42" s="165"/>
+      <c r="L42" s="165"/>
+    </row>
+    <row r="43" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="160"/>
+      <c r="C43" s="176" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="175" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="166">
+        <v>8886477774</v>
+      </c>
+      <c r="F43" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="162" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43" s="162"/>
+      <c r="I43" s="165"/>
+      <c r="J43" s="165"/>
+      <c r="K43" s="165"/>
+      <c r="L43" s="165"/>
+    </row>
+    <row r="44" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="160"/>
+      <c r="C44" s="161" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="173" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="174">
+        <v>7729943139</v>
+      </c>
+      <c r="F44" s="172" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" s="162" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" s="162"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="165"/>
+      <c r="K44" s="165"/>
+      <c r="L44" s="162"/>
+    </row>
+    <row r="45" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="160"/>
+      <c r="C45" s="176" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="175" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="166">
+        <v>8179509430</v>
+      </c>
+      <c r="F45" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="G45" s="162" t="s">
+        <v>115</v>
+      </c>
+      <c r="H45" s="178" t="s">
+        <v>148</v>
+      </c>
+      <c r="I45" s="165"/>
+      <c r="J45" s="165"/>
+      <c r="K45" s="165"/>
+      <c r="L45" s="165"/>
+    </row>
+    <row r="46" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="160"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
+      <c r="E46" s="165"/>
+      <c r="F46" s="165"/>
+      <c r="G46" s="165"/>
+      <c r="H46" s="165"/>
+      <c r="I46" s="168">
+        <v>44734</v>
+      </c>
+      <c r="J46" s="168">
+        <v>44784</v>
+      </c>
+      <c r="K46" s="168">
+        <f>J46-I46</f>
+        <v>50</v>
+      </c>
+      <c r="L46" s="165"/>
+    </row>
+    <row r="47" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="160"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
+      <c r="E47" s="165"/>
+      <c r="F47" s="165"/>
+      <c r="G47" s="165"/>
+      <c r="H47" s="165"/>
+      <c r="I47" s="165"/>
+      <c r="J47" s="165"/>
+      <c r="K47" s="165"/>
+      <c r="L47" s="165"/>
+    </row>
+    <row r="48" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="155"/>
+      <c r="C48" s="156"/>
+      <c r="D48" s="157" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="158"/>
+      <c r="F48" s="159"/>
+      <c r="G48" s="159"/>
+      <c r="H48" s="159"/>
+      <c r="I48" s="159"/>
+      <c r="J48" s="159"/>
+      <c r="K48" s="159"/>
+      <c r="L48" s="159"/>
+    </row>
+    <row r="49" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="160"/>
+      <c r="C49" s="171" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="187" t="s">
+        <v>236</v>
+      </c>
+      <c r="E49" s="162">
         <v>9457116871</v>
       </c>
-      <c r="F36" s="168" t="s">
+      <c r="F49" s="162" t="s">
         <v>110</v>
       </c>
-      <c r="G36" s="168" t="s">
+      <c r="G49" s="162" t="s">
+        <v>108</v>
+      </c>
+      <c r="H49" s="162"/>
+      <c r="I49" s="165"/>
+      <c r="J49" s="165"/>
+      <c r="K49" s="165"/>
+      <c r="L49" s="165"/>
+    </row>
+    <row r="50" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="160"/>
+      <c r="C50" s="161" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="173" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" s="174">
+        <v>9989290928</v>
+      </c>
+      <c r="F50" s="162" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="H36" s="168"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="171"/>
-      <c r="K36" s="171"/>
-      <c r="L36" s="168"/>
-    </row>
-    <row r="37" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="166"/>
-      <c r="C37" s="167" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" s="185" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="186">
-        <v>9989290928</v>
-      </c>
-      <c r="F37" s="168" t="s">
+      <c r="H50" s="162"/>
+      <c r="I50" s="165"/>
+      <c r="J50" s="165"/>
+      <c r="K50" s="165"/>
+      <c r="L50" s="165"/>
+    </row>
+    <row r="51" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="199">
+        <v>44968</v>
+      </c>
+      <c r="C51" s="175" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="176" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="166">
+        <v>9542102109</v>
+      </c>
+      <c r="F51" s="162" t="s">
         <v>110</v>
       </c>
-      <c r="G37" s="168" t="s">
+      <c r="G51" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="H37" s="168"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="171"/>
-      <c r="K37" s="171"/>
-      <c r="L37" s="171"/>
-    </row>
-    <row r="38" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="166">
-        <v>45086</v>
-      </c>
-      <c r="C38" s="187" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="188" t="s">
-        <v>133</v>
-      </c>
-      <c r="E38" s="173">
+      <c r="H51" s="162"/>
+      <c r="I51" s="165"/>
+      <c r="J51" s="165"/>
+      <c r="K51" s="165"/>
+      <c r="L51" s="165"/>
+    </row>
+    <row r="52" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="160"/>
+      <c r="C52" s="175" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="176" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" s="162">
+        <v>9948375463</v>
+      </c>
+      <c r="F52" s="162" t="s">
+        <v>110</v>
+      </c>
+      <c r="G52" s="162" t="s">
+        <v>109</v>
+      </c>
+      <c r="H52" s="162"/>
+      <c r="I52" s="165"/>
+      <c r="J52" s="165"/>
+      <c r="K52" s="165"/>
+      <c r="L52" s="162"/>
+    </row>
+    <row r="53" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="160"/>
+      <c r="C53" s="175" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" s="175" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" s="166">
+        <v>9948759651</v>
+      </c>
+      <c r="F53" s="162" t="s">
+        <v>123</v>
+      </c>
+      <c r="G53" s="162" t="s">
+        <v>109</v>
+      </c>
+      <c r="H53" s="164"/>
+      <c r="I53" s="165"/>
+      <c r="J53" s="165"/>
+      <c r="K53" s="165"/>
+      <c r="L53" s="165"/>
+    </row>
+    <row r="54" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="155"/>
+      <c r="C54" s="156"/>
+      <c r="D54" s="157" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="158"/>
+      <c r="F54" s="159"/>
+      <c r="G54" s="159"/>
+      <c r="H54" s="159"/>
+      <c r="I54" s="159"/>
+      <c r="J54" s="159"/>
+      <c r="K54" s="159"/>
+      <c r="L54" s="159"/>
+    </row>
+    <row r="55" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="160"/>
+      <c r="C55" s="175" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="123" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" s="174">
         <v>9542102109</v>
       </c>
-      <c r="F38" s="173" t="s">
+      <c r="F55" s="172" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" s="162" t="s">
+        <v>109</v>
+      </c>
+      <c r="H55" s="162"/>
+      <c r="I55" s="165"/>
+      <c r="J55" s="165"/>
+      <c r="K55" s="165"/>
+      <c r="L55" s="165"/>
+    </row>
+    <row r="56" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="160"/>
+      <c r="C56" s="175" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="175" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="166">
+        <v>8886477774</v>
+      </c>
+      <c r="F56" s="172" t="s">
         <v>110</v>
       </c>
-      <c r="G38" s="168" t="s">
+      <c r="G56" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="H38" s="168"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="171"/>
-      <c r="K38" s="171"/>
-      <c r="L38" s="171"/>
-    </row>
-    <row r="39" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="166"/>
-      <c r="C39" s="187" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" s="188" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="168">
+      <c r="H56" s="162"/>
+      <c r="I56" s="165"/>
+      <c r="J56" s="165"/>
+      <c r="K56" s="165"/>
+      <c r="L56" s="165"/>
+    </row>
+    <row r="57" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="160"/>
+      <c r="C57" s="161" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="173" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="174">
+        <v>7729943139</v>
+      </c>
+      <c r="F57" s="172" t="s">
+        <v>110</v>
+      </c>
+      <c r="G57" s="162" t="s">
+        <v>115</v>
+      </c>
+      <c r="H57" s="162"/>
+      <c r="I57" s="165"/>
+      <c r="J57" s="165"/>
+      <c r="K57" s="165"/>
+      <c r="L57" s="162"/>
+    </row>
+    <row r="58" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="160"/>
+      <c r="C58" s="161" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="175" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="166">
+        <v>8179509430</v>
+      </c>
+      <c r="F58" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="G58" s="162" t="s">
+        <v>115</v>
+      </c>
+      <c r="H58" s="162"/>
+      <c r="I58" s="165"/>
+      <c r="J58" s="165"/>
+      <c r="K58" s="165"/>
+      <c r="L58" s="165"/>
+    </row>
+    <row r="59" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="160"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
+      <c r="E59" s="165"/>
+      <c r="F59" s="165"/>
+      <c r="G59" s="165"/>
+      <c r="H59" s="165"/>
+      <c r="I59" s="168">
+        <v>44784</v>
+      </c>
+      <c r="J59" s="168">
+        <v>44833</v>
+      </c>
+      <c r="K59" s="168">
+        <f>J59-I59</f>
+        <v>49</v>
+      </c>
+      <c r="L59" s="165"/>
+    </row>
+    <row r="60" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="160"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
+      <c r="E60" s="165"/>
+      <c r="F60" s="165"/>
+      <c r="G60" s="165"/>
+      <c r="H60" s="165"/>
+      <c r="I60" s="165"/>
+      <c r="J60" s="165"/>
+      <c r="K60" s="165"/>
+      <c r="L60" s="165"/>
+    </row>
+    <row r="61" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="155"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="157" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="158"/>
+      <c r="F61" s="159"/>
+      <c r="G61" s="159"/>
+      <c r="H61" s="159"/>
+      <c r="I61" s="159"/>
+      <c r="J61" s="159"/>
+      <c r="K61" s="159"/>
+      <c r="L61" s="159"/>
+    </row>
+    <row r="62" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="160"/>
+      <c r="C62" s="171" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="187" t="s">
+        <v>259</v>
+      </c>
+      <c r="E62" s="162">
+        <v>7093504037</v>
+      </c>
+      <c r="F62" s="162" t="s">
+        <v>129</v>
+      </c>
+      <c r="G62" s="162" t="s">
+        <v>141</v>
+      </c>
+      <c r="H62" s="164"/>
+      <c r="I62" s="165"/>
+      <c r="J62" s="165"/>
+      <c r="K62" s="165"/>
+      <c r="L62" s="165"/>
+    </row>
+    <row r="63" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="160"/>
+      <c r="C63" s="161" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="173" t="s">
+        <v>142</v>
+      </c>
+      <c r="E63" s="163">
+        <v>9704782802</v>
+      </c>
+      <c r="F63" s="162" t="s">
+        <v>129</v>
+      </c>
+      <c r="G63" s="162" t="s">
+        <v>109</v>
+      </c>
+      <c r="H63" s="179"/>
+      <c r="I63" s="165"/>
+      <c r="J63" s="165"/>
+      <c r="K63" s="165"/>
+      <c r="L63" s="165"/>
+    </row>
+    <row r="64" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="199">
+        <v>44996</v>
+      </c>
+      <c r="C64" s="175" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="176" t="s">
+        <v>118</v>
+      </c>
+      <c r="E64" s="170">
+        <v>9182728547</v>
+      </c>
+      <c r="F64" s="166" t="s">
+        <v>123</v>
+      </c>
+      <c r="G64" s="162" t="s">
+        <v>109</v>
+      </c>
+      <c r="H64" s="164"/>
+      <c r="I64" s="165"/>
+      <c r="J64" s="165"/>
+      <c r="K64" s="165"/>
+      <c r="L64" s="165"/>
+    </row>
+    <row r="65" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="160"/>
+      <c r="C65" s="169" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" s="176" t="s">
+        <v>122</v>
+      </c>
+      <c r="E65" s="163">
+        <v>9704782802</v>
+      </c>
+      <c r="F65" s="162" t="s">
+        <v>110</v>
+      </c>
+      <c r="G65" s="162" t="s">
+        <v>115</v>
+      </c>
+      <c r="H65" s="164"/>
+      <c r="I65" s="165"/>
+      <c r="J65" s="165"/>
+      <c r="K65" s="165"/>
+      <c r="L65" s="165"/>
+    </row>
+    <row r="66" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="160"/>
+      <c r="C66" s="175" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" s="175" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66" s="170">
+        <v>9182728547</v>
+      </c>
+      <c r="F66" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="G66" s="162" t="s">
+        <v>115</v>
+      </c>
+      <c r="H66" s="164"/>
+      <c r="I66" s="165"/>
+      <c r="J66" s="165"/>
+      <c r="K66" s="165"/>
+      <c r="L66" s="165"/>
+    </row>
+    <row r="67" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="155"/>
+      <c r="C67" s="156"/>
+      <c r="D67" s="157" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67" s="158"/>
+      <c r="F67" s="159"/>
+      <c r="G67" s="159"/>
+      <c r="H67" s="159"/>
+      <c r="I67" s="159"/>
+      <c r="J67" s="159"/>
+      <c r="K67" s="159"/>
+      <c r="L67" s="159"/>
+    </row>
+    <row r="68" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="160"/>
+      <c r="C68" s="161" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" s="123" t="s">
+        <v>260</v>
+      </c>
+      <c r="E68" s="170">
         <v>9948375463</v>
       </c>
-      <c r="F39" s="168" t="s">
+      <c r="F68" s="172" t="s">
+        <v>123</v>
+      </c>
+      <c r="G68" s="162" t="s">
+        <v>109</v>
+      </c>
+      <c r="H68" s="180"/>
+      <c r="I68" s="165"/>
+      <c r="J68" s="165"/>
+      <c r="K68" s="165"/>
+      <c r="L68" s="165"/>
+    </row>
+    <row r="69" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="160"/>
+      <c r="C69" s="176" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="176" t="s">
+        <v>147</v>
+      </c>
+      <c r="E69" s="162">
+        <v>9959669154</v>
+      </c>
+      <c r="F69" s="166" t="s">
+        <v>123</v>
+      </c>
+      <c r="G69" s="162" t="s">
+        <v>115</v>
+      </c>
+      <c r="H69" s="180"/>
+      <c r="I69" s="165"/>
+      <c r="J69" s="165"/>
+      <c r="K69" s="165"/>
+      <c r="L69" s="165"/>
+    </row>
+    <row r="70" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="160"/>
+      <c r="C70" s="161" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" s="173" t="s">
+        <v>145</v>
+      </c>
+      <c r="E70" s="162">
+        <v>7093504037</v>
+      </c>
+      <c r="F70" s="172" t="s">
         <v>110</v>
       </c>
-      <c r="G39" s="168" t="s">
+      <c r="G70" s="162" t="s">
+        <v>109</v>
+      </c>
+      <c r="H70" s="180"/>
+      <c r="I70" s="165"/>
+      <c r="J70" s="165"/>
+      <c r="K70" s="165"/>
+      <c r="L70" s="165"/>
+    </row>
+    <row r="71" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="160"/>
+      <c r="C71" s="176" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" s="175" t="s">
+        <v>167</v>
+      </c>
+      <c r="E71" s="162">
+        <v>7093504037</v>
+      </c>
+      <c r="F71" s="166" t="s">
+        <v>146</v>
+      </c>
+      <c r="G71" s="162" t="s">
+        <v>109</v>
+      </c>
+      <c r="H71" s="180"/>
+      <c r="I71" s="165"/>
+      <c r="J71" s="165"/>
+      <c r="K71" s="165"/>
+      <c r="L71" s="165"/>
+    </row>
+    <row r="72" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="160"/>
+      <c r="C72" s="165"/>
+      <c r="D72" s="165"/>
+      <c r="E72" s="165"/>
+      <c r="F72" s="165"/>
+      <c r="G72" s="165"/>
+      <c r="H72" s="165"/>
+      <c r="I72" s="168">
+        <v>44833</v>
+      </c>
+      <c r="J72" s="168">
+        <v>44878</v>
+      </c>
+      <c r="K72" s="168">
+        <f>J72-I72</f>
+        <v>45</v>
+      </c>
+      <c r="L72" s="165"/>
+    </row>
+    <row r="73" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="160"/>
+      <c r="C73" s="165"/>
+      <c r="D73" s="165"/>
+      <c r="E73" s="165"/>
+      <c r="F73" s="165"/>
+      <c r="G73" s="165"/>
+      <c r="H73" s="165"/>
+      <c r="I73" s="165"/>
+      <c r="J73" s="165"/>
+      <c r="K73" s="165"/>
+      <c r="L73" s="165"/>
+    </row>
+    <row r="74" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="155"/>
+      <c r="C74" s="156"/>
+      <c r="D74" s="157" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="158"/>
+      <c r="F74" s="159"/>
+      <c r="G74" s="159"/>
+      <c r="H74" s="159"/>
+      <c r="I74" s="159"/>
+      <c r="J74" s="159"/>
+      <c r="K74" s="159"/>
+      <c r="L74" s="159"/>
+    </row>
+    <row r="75" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="160"/>
+      <c r="C75" s="171" t="s">
+        <v>198</v>
+      </c>
+      <c r="D75" s="187" t="s">
+        <v>226</v>
+      </c>
+      <c r="E75" s="162">
+        <v>9948375463</v>
+      </c>
+      <c r="F75" s="162" t="s">
+        <v>110</v>
+      </c>
+      <c r="G75" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="H39" s="168"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="171"/>
-      <c r="K39" s="171"/>
-      <c r="L39" s="171"/>
-    </row>
-    <row r="40" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="166"/>
-      <c r="C40" s="187" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="187" t="s">
-        <v>188</v>
-      </c>
-      <c r="E40" s="173">
-        <v>9948759651</v>
-      </c>
-      <c r="F40" s="173" t="s">
-        <v>135</v>
-      </c>
-      <c r="G40" s="168" t="s">
+      <c r="H75" s="164"/>
+      <c r="I75" s="165"/>
+      <c r="J75" s="165"/>
+      <c r="K75" s="165"/>
+      <c r="L75" s="165"/>
+    </row>
+    <row r="76" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="160"/>
+      <c r="C76" s="161" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76" s="173" t="s">
+        <v>199</v>
+      </c>
+      <c r="E76" s="163">
+        <v>9959669154</v>
+      </c>
+      <c r="F76" s="162" t="s">
+        <v>123</v>
+      </c>
+      <c r="G76" s="162" t="s">
         <v>109</v>
       </c>
-      <c r="H40" s="168"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="171"/>
-      <c r="K40" s="171"/>
-      <c r="L40" s="168"/>
-    </row>
-    <row r="41" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="161"/>
-      <c r="C41" s="162"/>
-      <c r="D41" s="163" t="s">
+      <c r="H76" s="179"/>
+      <c r="I76" s="165"/>
+      <c r="J76" s="165"/>
+      <c r="K76" s="165"/>
+      <c r="L76" s="165"/>
+    </row>
+    <row r="77" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="199">
+        <v>45027</v>
+      </c>
+      <c r="C77" s="175" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" s="176" t="s">
+        <v>200</v>
+      </c>
+      <c r="E77" s="170">
+        <v>7093504037</v>
+      </c>
+      <c r="F77" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="G77" s="162" t="s">
+        <v>115</v>
+      </c>
+      <c r="H77" s="164"/>
+      <c r="I77" s="165"/>
+      <c r="J77" s="165"/>
+      <c r="K77" s="165"/>
+      <c r="L77" s="165"/>
+    </row>
+    <row r="78" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="160"/>
+      <c r="C78" s="169" t="s">
+        <v>201</v>
+      </c>
+      <c r="D78" s="176" t="s">
+        <v>202</v>
+      </c>
+      <c r="E78" s="163">
+        <v>9704782802</v>
+      </c>
+      <c r="F78" s="162" t="s">
+        <v>123</v>
+      </c>
+      <c r="G78" s="162" t="s">
+        <v>109</v>
+      </c>
+      <c r="H78" s="164"/>
+      <c r="I78" s="165"/>
+      <c r="J78" s="165"/>
+      <c r="K78" s="165"/>
+      <c r="L78" s="165"/>
+    </row>
+    <row r="79" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="160"/>
+      <c r="C79" s="175" t="s">
+        <v>201</v>
+      </c>
+      <c r="D79" s="175" t="s">
+        <v>209</v>
+      </c>
+      <c r="E79" s="170">
+        <v>9182728547</v>
+      </c>
+      <c r="F79" s="166" t="s">
+        <v>123</v>
+      </c>
+      <c r="G79" s="162" t="s">
+        <v>109</v>
+      </c>
+      <c r="H79" s="164"/>
+      <c r="I79" s="165"/>
+      <c r="J79" s="165"/>
+      <c r="K79" s="165"/>
+      <c r="L79" s="165"/>
+    </row>
+    <row r="80" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="155"/>
+      <c r="C80" s="156"/>
+      <c r="D80" s="157" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="164"/>
-      <c r="F41" s="165"/>
-      <c r="G41" s="165"/>
-      <c r="H41" s="165"/>
-      <c r="I41" s="165"/>
-      <c r="J41" s="165"/>
-      <c r="K41" s="165"/>
-      <c r="L41" s="165"/>
-    </row>
-    <row r="42" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="166"/>
-      <c r="C42" s="167" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="123" t="s">
-        <v>225</v>
-      </c>
-      <c r="E42" s="186">
+      <c r="E80" s="158"/>
+      <c r="F80" s="159"/>
+      <c r="G80" s="159"/>
+      <c r="H80" s="159"/>
+      <c r="I80" s="159"/>
+      <c r="J80" s="159"/>
+      <c r="K80" s="159"/>
+      <c r="L80" s="159"/>
+    </row>
+    <row r="81" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="160"/>
+      <c r="C81" s="161" t="s">
+        <v>116</v>
+      </c>
+      <c r="D81" s="123" t="s">
+        <v>261</v>
+      </c>
+      <c r="E81" s="170">
         <v>9542102109</v>
       </c>
-      <c r="F42" s="184" t="s">
+      <c r="F81" s="172" t="s">
         <v>110</v>
       </c>
-      <c r="G42" s="168" t="s">
+      <c r="G81" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="H42" s="189"/>
-      <c r="I42" s="171"/>
-      <c r="J42" s="171"/>
-      <c r="K42" s="171"/>
-      <c r="L42" s="171"/>
-    </row>
-    <row r="43" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="166"/>
-      <c r="C43" s="188" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="187" t="s">
-        <v>137</v>
-      </c>
-      <c r="E43" s="173">
+      <c r="H81" s="164"/>
+      <c r="I81" s="165"/>
+      <c r="J81" s="165"/>
+      <c r="K81" s="165"/>
+      <c r="L81" s="165"/>
+    </row>
+    <row r="82" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="160"/>
+      <c r="C82" s="176" t="s">
+        <v>116</v>
+      </c>
+      <c r="D82" s="176" t="s">
+        <v>203</v>
+      </c>
+      <c r="E82" s="162">
         <v>8886477774</v>
       </c>
-      <c r="F43" s="173" t="s">
+      <c r="F82" s="166" t="s">
+        <v>129</v>
+      </c>
+      <c r="G82" s="162" t="s">
+        <v>115</v>
+      </c>
+      <c r="H82" s="164"/>
+      <c r="I82" s="165"/>
+      <c r="J82" s="165"/>
+      <c r="K82" s="165"/>
+      <c r="L82" s="165"/>
+    </row>
+    <row r="83" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="160"/>
+      <c r="C83" s="161" t="s">
+        <v>201</v>
+      </c>
+      <c r="D83" s="173" t="s">
+        <v>204</v>
+      </c>
+      <c r="E83" s="162">
+        <v>7729943139</v>
+      </c>
+      <c r="F83" s="172" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="H43" s="168"/>
-      <c r="I43" s="171"/>
-      <c r="J43" s="171"/>
-      <c r="K43" s="171"/>
-      <c r="L43" s="171"/>
-    </row>
-    <row r="44" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="166"/>
-      <c r="C44" s="167" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="185" t="s">
-        <v>138</v>
-      </c>
-      <c r="E44" s="186">
-        <v>7729943139</v>
-      </c>
-      <c r="F44" s="184" t="s">
-        <v>110</v>
-      </c>
-      <c r="G44" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="H44" s="168"/>
-      <c r="I44" s="171"/>
-      <c r="J44" s="171"/>
-      <c r="K44" s="171"/>
-      <c r="L44" s="168"/>
-    </row>
-    <row r="45" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="166"/>
-      <c r="C45" s="188" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" s="187" t="s">
-        <v>139</v>
-      </c>
-      <c r="E45" s="173">
-        <v>8179509430</v>
-      </c>
-      <c r="F45" s="173" t="s">
-        <v>110</v>
-      </c>
-      <c r="G45" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="H45" s="190" t="s">
-        <v>163</v>
-      </c>
-      <c r="I45" s="171"/>
-      <c r="J45" s="171"/>
-      <c r="K45" s="171"/>
-      <c r="L45" s="171"/>
-    </row>
-    <row r="46" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="166"/>
-      <c r="C46" s="171"/>
-      <c r="D46" s="171"/>
-      <c r="E46" s="171"/>
-      <c r="F46" s="171"/>
-      <c r="G46" s="171"/>
-      <c r="H46" s="171"/>
-      <c r="I46" s="177">
-        <v>42467</v>
-      </c>
-      <c r="J46" s="177">
-        <v>42515</v>
-      </c>
-      <c r="K46" s="177">
-        <f>J46-I46</f>
-        <v>48</v>
-      </c>
-      <c r="L46" s="171"/>
-    </row>
-    <row r="47" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="166"/>
-      <c r="C47" s="171"/>
-      <c r="D47" s="171"/>
-      <c r="E47" s="171"/>
-      <c r="F47" s="171"/>
-      <c r="G47" s="171"/>
-      <c r="H47" s="171"/>
-      <c r="I47" s="171"/>
-      <c r="J47" s="171"/>
-      <c r="K47" s="171"/>
-      <c r="L47" s="171"/>
-    </row>
-    <row r="48" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="161"/>
-      <c r="C48" s="162"/>
-      <c r="D48" s="163" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="164"/>
-      <c r="F48" s="165"/>
-      <c r="G48" s="165"/>
-      <c r="H48" s="165"/>
-      <c r="I48" s="165"/>
-      <c r="J48" s="165"/>
-      <c r="K48" s="165"/>
-      <c r="L48" s="165"/>
-    </row>
-    <row r="49" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="166"/>
-      <c r="C49" s="183" t="s">
-        <v>126</v>
-      </c>
-      <c r="D49" s="199" t="s">
-        <v>242</v>
-      </c>
-      <c r="E49" s="168">
-        <v>9457116871</v>
-      </c>
-      <c r="F49" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="G49" s="168" t="s">
-        <v>108</v>
-      </c>
-      <c r="H49" s="168"/>
-      <c r="I49" s="171"/>
-      <c r="J49" s="171"/>
-      <c r="K49" s="171"/>
-      <c r="L49" s="171"/>
-    </row>
-    <row r="50" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="166"/>
-      <c r="C50" s="167" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" s="185" t="s">
-        <v>199</v>
-      </c>
-      <c r="E50" s="186">
-        <v>9989290928</v>
-      </c>
-      <c r="F50" s="168" t="s">
-        <v>129</v>
-      </c>
-      <c r="G50" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="H50" s="168"/>
-      <c r="I50" s="171"/>
-      <c r="J50" s="171"/>
-      <c r="K50" s="171"/>
-      <c r="L50" s="171"/>
-    </row>
-    <row r="51" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="166">
-        <v>45116</v>
-      </c>
-      <c r="C51" s="187" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" s="188" t="s">
-        <v>140</v>
-      </c>
-      <c r="E51" s="173">
-        <v>9542102109</v>
-      </c>
-      <c r="F51" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="G51" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="H51" s="168"/>
-      <c r="I51" s="171"/>
-      <c r="J51" s="171"/>
-      <c r="K51" s="171"/>
-      <c r="L51" s="171"/>
-    </row>
-    <row r="52" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="166"/>
-      <c r="C52" s="187" t="s">
-        <v>126</v>
-      </c>
-      <c r="D52" s="188" t="s">
-        <v>141</v>
-      </c>
-      <c r="E52" s="168">
-        <v>9948375463</v>
-      </c>
-      <c r="F52" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="G52" s="168" t="s">
-        <v>109</v>
-      </c>
-      <c r="H52" s="168"/>
-      <c r="I52" s="171"/>
-      <c r="J52" s="171"/>
-      <c r="K52" s="171"/>
-      <c r="L52" s="168"/>
-    </row>
-    <row r="53" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="166"/>
-      <c r="C53" s="187" t="s">
-        <v>142</v>
-      </c>
-      <c r="D53" s="187" t="s">
-        <v>189</v>
-      </c>
-      <c r="E53" s="173">
-        <v>9948759651</v>
-      </c>
-      <c r="F53" s="168" t="s">
-        <v>129</v>
-      </c>
-      <c r="G53" s="168" t="s">
-        <v>109</v>
-      </c>
-      <c r="H53" s="170"/>
-      <c r="I53" s="171"/>
-      <c r="J53" s="171"/>
-      <c r="K53" s="171"/>
-      <c r="L53" s="171"/>
-    </row>
-    <row r="54" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="161"/>
-      <c r="C54" s="162"/>
-      <c r="D54" s="163" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" s="164"/>
-      <c r="F54" s="165"/>
-      <c r="G54" s="165"/>
-      <c r="H54" s="165"/>
-      <c r="I54" s="165"/>
-      <c r="J54" s="165"/>
-      <c r="K54" s="165"/>
-      <c r="L54" s="165"/>
-    </row>
-    <row r="55" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="166"/>
-      <c r="C55" s="187" t="s">
-        <v>142</v>
-      </c>
-      <c r="D55" s="123" t="s">
-        <v>243</v>
-      </c>
-      <c r="E55" s="186">
-        <v>9542102109</v>
-      </c>
-      <c r="F55" s="184" t="s">
-        <v>135</v>
-      </c>
-      <c r="G55" s="168" t="s">
-        <v>109</v>
-      </c>
-      <c r="H55" s="168"/>
-      <c r="I55" s="171"/>
-      <c r="J55" s="171"/>
-      <c r="K55" s="171"/>
-      <c r="L55" s="171"/>
-    </row>
-    <row r="56" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="166"/>
-      <c r="C56" s="187" t="s">
-        <v>142</v>
-      </c>
-      <c r="D56" s="187" t="s">
-        <v>143</v>
-      </c>
-      <c r="E56" s="173">
-        <v>8886477774</v>
-      </c>
-      <c r="F56" s="184" t="s">
-        <v>110</v>
-      </c>
-      <c r="G56" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="H56" s="168"/>
-      <c r="I56" s="171"/>
-      <c r="J56" s="171"/>
-      <c r="K56" s="171"/>
-      <c r="L56" s="171"/>
-    </row>
-    <row r="57" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="166"/>
-      <c r="C57" s="167" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="185" t="s">
-        <v>144</v>
-      </c>
-      <c r="E57" s="186">
-        <v>7729943139</v>
-      </c>
-      <c r="F57" s="184" t="s">
-        <v>110</v>
-      </c>
-      <c r="G57" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="H57" s="168"/>
-      <c r="I57" s="171"/>
-      <c r="J57" s="171"/>
-      <c r="K57" s="171"/>
-      <c r="L57" s="168"/>
-    </row>
-    <row r="58" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="166"/>
-      <c r="C58" s="167" t="s">
-        <v>116</v>
-      </c>
-      <c r="D58" s="187" t="s">
-        <v>145</v>
-      </c>
-      <c r="E58" s="173">
-        <v>8179509430</v>
-      </c>
-      <c r="F58" s="173" t="s">
-        <v>110</v>
-      </c>
-      <c r="G58" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="H58" s="168"/>
-      <c r="I58" s="171"/>
-      <c r="J58" s="171"/>
-      <c r="K58" s="171"/>
-      <c r="L58" s="171"/>
-    </row>
-    <row r="59" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="166"/>
-      <c r="C59" s="171"/>
-      <c r="D59" s="171"/>
-      <c r="E59" s="171"/>
-      <c r="F59" s="171"/>
-      <c r="G59" s="171"/>
-      <c r="H59" s="171"/>
-      <c r="I59" s="177">
-        <v>42515</v>
-      </c>
-      <c r="J59" s="177">
-        <v>42567</v>
-      </c>
-      <c r="K59" s="177">
-        <f>J59-I59</f>
-        <v>52</v>
-      </c>
-      <c r="L59" s="171"/>
-    </row>
-    <row r="60" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="166"/>
-      <c r="C60" s="171"/>
-      <c r="D60" s="171"/>
-      <c r="E60" s="171"/>
-      <c r="F60" s="171"/>
-      <c r="G60" s="171"/>
-      <c r="H60" s="171"/>
-      <c r="I60" s="171"/>
-      <c r="J60" s="171"/>
-      <c r="K60" s="171"/>
-      <c r="L60" s="171"/>
-    </row>
-    <row r="61" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="161"/>
-      <c r="C61" s="162"/>
-      <c r="D61" s="163" t="s">
-        <v>82</v>
-      </c>
-      <c r="E61" s="164"/>
-      <c r="F61" s="165"/>
-      <c r="G61" s="165"/>
-      <c r="H61" s="165"/>
-      <c r="I61" s="165"/>
-      <c r="J61" s="165"/>
-      <c r="K61" s="165"/>
-      <c r="L61" s="165"/>
-    </row>
-    <row r="62" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="166"/>
-      <c r="C62" s="183" t="s">
-        <v>146</v>
-      </c>
-      <c r="D62" s="199" t="s">
-        <v>244</v>
-      </c>
-      <c r="E62" s="168">
-        <v>7093504037</v>
-      </c>
-      <c r="F62" s="168" t="s">
-        <v>135</v>
-      </c>
-      <c r="G62" s="168" t="s">
-        <v>147</v>
-      </c>
-      <c r="H62" s="170"/>
-      <c r="I62" s="171"/>
-      <c r="J62" s="171"/>
-      <c r="K62" s="171"/>
-      <c r="L62" s="171"/>
-    </row>
-    <row r="63" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="166"/>
-      <c r="C63" s="167" t="s">
-        <v>146</v>
-      </c>
-      <c r="D63" s="185" t="s">
-        <v>148</v>
-      </c>
-      <c r="E63" s="169">
-        <v>9704782802</v>
-      </c>
-      <c r="F63" s="168" t="s">
-        <v>135</v>
-      </c>
-      <c r="G63" s="168" t="s">
-        <v>109</v>
-      </c>
-      <c r="H63" s="191"/>
-      <c r="I63" s="171"/>
-      <c r="J63" s="171"/>
-      <c r="K63" s="171"/>
-      <c r="L63" s="171"/>
-    </row>
-    <row r="64" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="166">
-        <v>45147</v>
-      </c>
-      <c r="C64" s="187" t="s">
-        <v>146</v>
-      </c>
-      <c r="D64" s="188" t="s">
-        <v>121</v>
-      </c>
-      <c r="E64" s="182">
-        <v>9182728547</v>
-      </c>
-      <c r="F64" s="173" t="s">
-        <v>129</v>
-      </c>
-      <c r="G64" s="168" t="s">
-        <v>109</v>
-      </c>
-      <c r="H64" s="170"/>
-      <c r="I64" s="171"/>
-      <c r="J64" s="171"/>
-      <c r="K64" s="171"/>
-      <c r="L64" s="171"/>
-    </row>
-    <row r="65" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="166"/>
-      <c r="C65" s="181" t="s">
-        <v>149</v>
-      </c>
-      <c r="D65" s="188" t="s">
-        <v>128</v>
-      </c>
-      <c r="E65" s="169">
-        <v>9704782802</v>
-      </c>
-      <c r="F65" s="168" t="s">
-        <v>110</v>
-      </c>
-      <c r="G65" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="H65" s="170"/>
-      <c r="I65" s="171"/>
-      <c r="J65" s="171"/>
-      <c r="K65" s="171"/>
-      <c r="L65" s="171"/>
-    </row>
-    <row r="66" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="166"/>
-      <c r="C66" s="187" t="s">
-        <v>149</v>
-      </c>
-      <c r="D66" s="187" t="s">
-        <v>127</v>
-      </c>
-      <c r="E66" s="182">
-        <v>9182728547</v>
-      </c>
-      <c r="F66" s="173" t="s">
-        <v>110</v>
-      </c>
-      <c r="G66" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="H66" s="170"/>
-      <c r="I66" s="171"/>
-      <c r="J66" s="171"/>
-      <c r="K66" s="171"/>
-      <c r="L66" s="171"/>
-    </row>
-    <row r="67" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="161"/>
-      <c r="C67" s="162"/>
-      <c r="D67" s="163" t="s">
-        <v>81</v>
-      </c>
-      <c r="E67" s="164"/>
-      <c r="F67" s="165"/>
-      <c r="G67" s="165"/>
-      <c r="H67" s="165"/>
-      <c r="I67" s="165"/>
-      <c r="J67" s="165"/>
-      <c r="K67" s="165"/>
-      <c r="L67" s="165"/>
-    </row>
-    <row r="68" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="166"/>
-      <c r="C68" s="167" t="s">
-        <v>150</v>
-      </c>
-      <c r="D68" s="123" t="s">
-        <v>245</v>
-      </c>
-      <c r="E68" s="182">
-        <v>9948375463</v>
-      </c>
-      <c r="F68" s="184" t="s">
-        <v>129</v>
-      </c>
-      <c r="G68" s="168" t="s">
-        <v>109</v>
-      </c>
-      <c r="H68" s="192"/>
-      <c r="I68" s="171"/>
-      <c r="J68" s="171"/>
-      <c r="K68" s="171"/>
-      <c r="L68" s="171"/>
-    </row>
-    <row r="69" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="166"/>
-      <c r="C69" s="188" t="s">
-        <v>150</v>
-      </c>
-      <c r="D69" s="188" t="s">
-        <v>162</v>
-      </c>
-      <c r="E69" s="168">
-        <v>9959669154</v>
-      </c>
-      <c r="F69" s="173" t="s">
-        <v>129</v>
-      </c>
-      <c r="G69" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="H69" s="192"/>
-      <c r="I69" s="171"/>
-      <c r="J69" s="171"/>
-      <c r="K69" s="171"/>
-      <c r="L69" s="171"/>
-    </row>
-    <row r="70" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="166"/>
-      <c r="C70" s="167" t="s">
-        <v>150</v>
-      </c>
-      <c r="D70" s="185" t="s">
-        <v>152</v>
-      </c>
-      <c r="E70" s="168">
-        <v>7093504037</v>
-      </c>
-      <c r="F70" s="184" t="s">
-        <v>110</v>
-      </c>
-      <c r="G70" s="168" t="s">
-        <v>109</v>
-      </c>
-      <c r="H70" s="192"/>
-      <c r="I70" s="171"/>
-      <c r="J70" s="171"/>
-      <c r="K70" s="171"/>
-      <c r="L70" s="171"/>
-    </row>
-    <row r="71" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="166"/>
-      <c r="C71" s="188" t="s">
-        <v>150</v>
-      </c>
-      <c r="D71" s="187" t="s">
-        <v>190</v>
-      </c>
-      <c r="E71" s="168">
-        <v>7093504037</v>
-      </c>
-      <c r="F71" s="173" t="s">
-        <v>153</v>
-      </c>
-      <c r="G71" s="168" t="s">
-        <v>109</v>
-      </c>
-      <c r="H71" s="192"/>
-      <c r="I71" s="171"/>
-      <c r="J71" s="171"/>
-      <c r="K71" s="171"/>
-      <c r="L71" s="171"/>
-    </row>
-    <row r="72" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="166"/>
-      <c r="C72" s="171"/>
-      <c r="D72" s="171"/>
-      <c r="E72" s="171"/>
-      <c r="F72" s="171"/>
-      <c r="G72" s="171"/>
-      <c r="H72" s="171"/>
-      <c r="I72" s="177">
-        <v>42567</v>
-      </c>
-      <c r="J72" s="177">
-        <v>42617</v>
-      </c>
-      <c r="K72" s="177">
-        <f>J72-I72</f>
-        <v>50</v>
-      </c>
-      <c r="L72" s="171"/>
-    </row>
-    <row r="73" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="166"/>
-      <c r="C73" s="171"/>
-      <c r="D73" s="171"/>
-      <c r="E73" s="171"/>
-      <c r="F73" s="171"/>
-      <c r="G73" s="171"/>
-      <c r="H73" s="171"/>
-      <c r="I73" s="171"/>
-      <c r="J73" s="171"/>
-      <c r="K73" s="171"/>
-      <c r="L73" s="171"/>
-    </row>
-    <row r="74" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="161"/>
-      <c r="C74" s="162"/>
-      <c r="D74" s="163" t="s">
-        <v>82</v>
-      </c>
-      <c r="E74" s="164"/>
-      <c r="F74" s="165"/>
-      <c r="G74" s="165"/>
-      <c r="H74" s="165"/>
-      <c r="I74" s="165"/>
-      <c r="J74" s="165"/>
-      <c r="K74" s="165"/>
-      <c r="L74" s="165"/>
-    </row>
-    <row r="75" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="166"/>
-      <c r="C75" s="178" t="s">
-        <v>154</v>
-      </c>
-      <c r="D75" s="197" t="s">
-        <v>246</v>
-      </c>
-      <c r="E75" s="182">
-        <v>9948375463</v>
-      </c>
-      <c r="F75" s="180" t="s">
-        <v>110</v>
-      </c>
-      <c r="G75" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="H75" s="170"/>
-      <c r="I75" s="171"/>
-      <c r="J75" s="171"/>
-      <c r="K75" s="171"/>
-      <c r="L75" s="171"/>
-    </row>
-    <row r="76" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="166"/>
-      <c r="C76" s="178" t="s">
-        <v>154</v>
-      </c>
-      <c r="D76" s="179" t="s">
-        <v>155</v>
-      </c>
-      <c r="E76" s="168">
-        <v>9959669154</v>
-      </c>
-      <c r="F76" s="180" t="s">
-        <v>129</v>
-      </c>
-      <c r="G76" s="168" t="s">
-        <v>109</v>
-      </c>
-      <c r="H76" s="191"/>
-      <c r="I76" s="171"/>
-      <c r="J76" s="171"/>
-      <c r="K76" s="171"/>
-      <c r="L76" s="171"/>
-    </row>
-    <row r="77" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="166">
-        <v>45178</v>
-      </c>
-      <c r="C77" s="181" t="s">
-        <v>154</v>
-      </c>
-      <c r="D77" s="181" t="s">
-        <v>156</v>
-      </c>
-      <c r="E77" s="168">
-        <v>7093504037</v>
-      </c>
-      <c r="F77" s="180" t="s">
-        <v>110</v>
-      </c>
-      <c r="G77" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="H77" s="170"/>
-      <c r="I77" s="171"/>
-      <c r="J77" s="171"/>
-      <c r="K77" s="171"/>
-      <c r="L77" s="171"/>
-    </row>
-    <row r="78" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="166"/>
-      <c r="C78" s="176" t="s">
-        <v>157</v>
-      </c>
-      <c r="D78" s="181" t="s">
-        <v>158</v>
-      </c>
-      <c r="E78" s="169">
-        <v>9704782802</v>
-      </c>
-      <c r="F78" s="180" t="s">
-        <v>129</v>
-      </c>
-      <c r="G78" s="168" t="s">
-        <v>109</v>
-      </c>
-      <c r="H78" s="170"/>
-      <c r="I78" s="171"/>
-      <c r="J78" s="171"/>
-      <c r="K78" s="171"/>
-      <c r="L78" s="171"/>
-    </row>
-    <row r="79" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="166"/>
-      <c r="C79" s="176" t="s">
-        <v>157</v>
-      </c>
-      <c r="D79" s="181" t="s">
-        <v>200</v>
-      </c>
-      <c r="E79" s="182">
-        <v>9182728547</v>
-      </c>
-      <c r="F79" s="180" t="s">
-        <v>129</v>
-      </c>
-      <c r="G79" s="168" t="s">
-        <v>109</v>
-      </c>
-      <c r="H79" s="170"/>
-      <c r="I79" s="171"/>
-      <c r="J79" s="171"/>
-      <c r="K79" s="171"/>
-      <c r="L79" s="171"/>
-    </row>
-    <row r="80" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="161"/>
-      <c r="C80" s="162"/>
-      <c r="D80" s="163" t="s">
-        <v>81</v>
-      </c>
-      <c r="E80" s="164"/>
-      <c r="F80" s="165"/>
-      <c r="G80" s="165"/>
-      <c r="H80" s="165"/>
-      <c r="I80" s="165"/>
-      <c r="J80" s="165"/>
-      <c r="K80" s="165"/>
-      <c r="L80" s="165"/>
-    </row>
-    <row r="81" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="166"/>
-      <c r="C81" s="178" t="s">
-        <v>116</v>
-      </c>
-      <c r="D81" s="197" t="s">
-        <v>247</v>
-      </c>
-      <c r="E81" s="186">
-        <v>9542102109</v>
-      </c>
-      <c r="F81" s="180" t="s">
-        <v>110</v>
-      </c>
-      <c r="G81" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="H81" s="170"/>
-      <c r="I81" s="171"/>
-      <c r="J81" s="171"/>
-      <c r="K81" s="171"/>
-      <c r="L81" s="171"/>
-    </row>
-    <row r="82" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="166"/>
-      <c r="C82" s="178" t="s">
-        <v>116</v>
-      </c>
-      <c r="D82" s="181" t="s">
-        <v>159</v>
-      </c>
-      <c r="E82" s="173">
-        <v>8886477774</v>
-      </c>
-      <c r="F82" s="180" t="s">
-        <v>135</v>
-      </c>
-      <c r="G82" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="H82" s="170"/>
-      <c r="I82" s="171"/>
-      <c r="J82" s="171"/>
-      <c r="K82" s="171"/>
-      <c r="L82" s="171"/>
-    </row>
-    <row r="83" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="166"/>
-      <c r="C83" s="183" t="s">
-        <v>157</v>
-      </c>
-      <c r="D83" s="181" t="s">
-        <v>160</v>
-      </c>
-      <c r="E83" s="186">
-        <v>7729943139</v>
-      </c>
-      <c r="F83" s="180" t="s">
-        <v>110</v>
-      </c>
-      <c r="G83" s="168" t="s">
-        <v>161</v>
-      </c>
-      <c r="H83" s="191"/>
-      <c r="I83" s="171"/>
-      <c r="J83" s="171"/>
-      <c r="K83" s="171"/>
-      <c r="L83" s="171"/>
+      <c r="G83" s="162" t="s">
+        <v>205</v>
+      </c>
+      <c r="H83" s="179"/>
+      <c r="I83" s="165"/>
+      <c r="J83" s="165"/>
+      <c r="K83" s="165"/>
+      <c r="L83" s="165"/>
     </row>
     <row r="84" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="166"/>
+      <c r="B84" s="160"/>
       <c r="C84" s="176" t="s">
         <v>116</v>
       </c>
-      <c r="D84" s="181" t="s">
-        <v>184</v>
-      </c>
-      <c r="E84" s="168">
+      <c r="D84" s="213" t="s">
+        <v>262</v>
+      </c>
+      <c r="E84" s="162">
         <v>7093504037</v>
       </c>
-      <c r="F84" s="180" t="s">
+      <c r="F84" s="166" t="s">
         <v>110</v>
       </c>
-      <c r="G84" s="168" t="s">
+      <c r="G84" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="H84" s="170"/>
-      <c r="I84" s="171"/>
-      <c r="J84" s="171"/>
-      <c r="K84" s="171"/>
-      <c r="L84" s="171"/>
+      <c r="H84" s="164"/>
+      <c r="I84" s="165"/>
+      <c r="J84" s="165"/>
+      <c r="K84" s="165"/>
+      <c r="L84" s="165"/>
     </row>
     <row r="85" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="166"/>
-      <c r="C85" s="171"/>
-      <c r="D85" s="171"/>
-      <c r="E85" s="171"/>
-      <c r="F85" s="171"/>
-      <c r="G85" s="171"/>
-      <c r="H85" s="171"/>
-      <c r="I85" s="177">
-        <v>42617</v>
-      </c>
-      <c r="J85" s="177">
-        <v>42670</v>
-      </c>
-      <c r="K85" s="177">
+      <c r="B85" s="160"/>
+      <c r="C85" s="165"/>
+      <c r="D85" s="165"/>
+      <c r="E85" s="165"/>
+      <c r="F85" s="165"/>
+      <c r="G85" s="165"/>
+      <c r="H85" s="165"/>
+      <c r="I85" s="168">
+        <v>44878</v>
+      </c>
+      <c r="J85" s="168">
+        <v>44925</v>
+      </c>
+      <c r="K85" s="168">
         <f>J85-I85</f>
-        <v>53</v>
-      </c>
-      <c r="L85" s="171"/>
+        <v>47</v>
+      </c>
+      <c r="L85" s="165"/>
     </row>
     <row r="86" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="166"/>
-      <c r="C86" s="171"/>
-      <c r="D86" s="171"/>
-      <c r="E86" s="171"/>
-      <c r="F86" s="171"/>
-      <c r="G86" s="171"/>
-      <c r="H86" s="171"/>
-      <c r="I86" s="171"/>
-      <c r="J86" s="171"/>
-      <c r="K86" s="171"/>
-      <c r="L86" s="171"/>
+      <c r="B86" s="160"/>
+      <c r="C86" s="165"/>
+      <c r="D86" s="165"/>
+      <c r="E86" s="165"/>
+      <c r="F86" s="165"/>
+      <c r="G86" s="165"/>
+      <c r="H86" s="165"/>
+      <c r="I86" s="165"/>
+      <c r="J86" s="165"/>
+      <c r="K86" s="165"/>
+      <c r="L86" s="165"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C15:F15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E31" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4031,7 +4163,7 @@
   <dimension ref="A2:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4071,8 +4203,8 @@
       <c r="K2" s="71"/>
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
-      <c r="N2" s="194" t="s">
-        <v>238</v>
+      <c r="N2" s="182" t="s">
+        <v>264</v>
       </c>
       <c r="O2" s="67"/>
     </row>
@@ -4124,8 +4256,8 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
       <c r="E4" s="2"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -4133,9 +4265,9 @@
       <c r="I4" s="15"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="193"/>
+      <c r="L4" s="181"/>
       <c r="M4" s="16"/>
-      <c r="N4" s="193"/>
+      <c r="N4" s="181"/>
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4255,8 +4387,8 @@
       <c r="K12" s="71"/>
       <c r="L12" s="71"/>
       <c r="M12" s="71"/>
-      <c r="N12" s="194" t="s">
-        <v>238</v>
+      <c r="N12" s="182" t="s">
+        <v>264</v>
       </c>
       <c r="O12" s="67"/>
     </row>
@@ -4452,8 +4584,8 @@
       <c r="K22" s="71"/>
       <c r="L22" s="71"/>
       <c r="M22" s="71"/>
-      <c r="N22" s="194" t="s">
-        <v>238</v>
+      <c r="N22" s="182" t="s">
+        <v>264</v>
       </c>
       <c r="O22" s="67"/>
     </row>
@@ -4633,7 +4765,7 @@
   <dimension ref="B2:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4682,127 +4814,181 @@
       <c r="B4" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="140"/>
+      <c r="C4" s="200" t="s">
+        <v>213</v>
+      </c>
       <c r="E4" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="140"/>
+      <c r="F4" s="200" t="s">
+        <v>176</v>
+      </c>
       <c r="H4" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="140"/>
+      <c r="I4" s="136" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="5" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="140"/>
+      <c r="C5" s="200" t="s">
+        <v>116</v>
+      </c>
       <c r="E5" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="140"/>
+      <c r="F5" s="200" t="s">
+        <v>114</v>
+      </c>
       <c r="H5" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="140"/>
+      <c r="I5" s="136" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="6" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="143"/>
+      <c r="C6" s="139">
+        <v>9652511056</v>
+      </c>
       <c r="E6" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="141"/>
+      <c r="F6" s="137">
+        <v>7732085295</v>
+      </c>
       <c r="H6" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="140"/>
+      <c r="I6" s="136">
+        <v>9666265636</v>
+      </c>
     </row>
     <row r="7" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="142"/>
+      <c r="C7" s="138">
+        <v>2</v>
+      </c>
       <c r="E7" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="142"/>
+      <c r="F7" s="138">
+        <v>1</v>
+      </c>
       <c r="H7" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="142"/>
+      <c r="I7" s="138">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="142"/>
+      <c r="C8" s="138">
+        <v>2</v>
+      </c>
       <c r="E8" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="142"/>
+      <c r="F8" s="138">
+        <v>1</v>
+      </c>
       <c r="H8" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="142"/>
+      <c r="I8" s="138">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="141"/>
+      <c r="C9" s="129">
+        <v>45026</v>
+      </c>
       <c r="E9" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="141"/>
+      <c r="F9" s="129">
+        <v>44935</v>
+      </c>
       <c r="H9" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="141"/>
+      <c r="I9" s="137" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="10" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="142"/>
+      <c r="C10" s="138">
+        <v>0.2</v>
+      </c>
       <c r="E10" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="142"/>
+      <c r="F10" s="138">
+        <v>0.1</v>
+      </c>
       <c r="H10" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="142"/>
+      <c r="I10" s="138">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="11" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="142"/>
+      <c r="C11" s="138">
+        <v>25</v>
+      </c>
       <c r="E11" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="142"/>
+      <c r="F11" s="138">
+        <v>25</v>
+      </c>
       <c r="H11" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="142"/>
+      <c r="I11" s="138">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="142"/>
+      <c r="C12" s="138">
+        <v>30</v>
+      </c>
       <c r="E12" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="140"/>
+      <c r="F12" s="136">
+        <v>64</v>
+      </c>
       <c r="H12" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="27"/>
+      <c r="I12" s="27">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="104" t="s">
@@ -4920,15 +5106,17 @@
       <c r="B21" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="124"/>
+      <c r="C21" s="201" t="s">
+        <v>271</v>
+      </c>
       <c r="E21" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="144"/>
+      <c r="F21" s="140"/>
       <c r="H21" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="144"/>
+      <c r="I21" s="140"/>
     </row>
     <row r="22" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="27" t="s">
@@ -4938,11 +5126,15 @@
       <c r="E22" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="27"/>
+      <c r="F22" s="27">
+        <v>900</v>
+      </c>
       <c r="H22" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="27"/>
+      <c r="I22" s="27">
+        <v>2250</v>
+      </c>
     </row>
     <row r="23" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
@@ -4952,11 +5144,15 @@
       <c r="E23" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="27"/>
+      <c r="F23" s="27">
+        <v>80</v>
+      </c>
       <c r="H23" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="27"/>
+      <c r="I23" s="27">
+        <v>60</v>
+      </c>
     </row>
     <row r="24" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
@@ -4966,11 +5162,15 @@
       <c r="E24" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="27"/>
+      <c r="F24" s="27">
+        <v>13</v>
+      </c>
       <c r="H24" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="27"/>
+      <c r="I24" s="27">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
@@ -4994,11 +5194,15 @@
       <c r="E26" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="27"/>
+      <c r="F26" s="27">
+        <v>900</v>
+      </c>
       <c r="H26" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I26" s="27"/>
+      <c r="I26" s="27">
+        <v>2250</v>
+      </c>
     </row>
     <row r="27" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="27" t="s">
@@ -5008,11 +5212,15 @@
       <c r="E27" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="27"/>
+      <c r="F27" s="27">
+        <v>1020</v>
+      </c>
       <c r="H27" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="27"/>
+      <c r="I27" s="27">
+        <v>2900</v>
+      </c>
     </row>
     <row r="28" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="27" t="s">
@@ -5036,25 +5244,35 @@
       <c r="E29" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="44"/>
+      <c r="F29" s="44">
+        <v>0.7</v>
+      </c>
       <c r="H29" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="44"/>
+      <c r="I29" s="44">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="30" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="106"/>
+      <c r="C30" s="106">
+        <v>0</v>
+      </c>
       <c r="E30" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="106"/>
+      <c r="F30" s="106">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="H30" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="106"/>
+      <c r="I30" s="106">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="33" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B33" s="115" t="s">
@@ -5158,7 +5376,7 @@
       <c r="B40" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="130"/>
+      <c r="C40" s="129"/>
       <c r="E40" s="27" t="s">
         <v>47</v>
       </c>
@@ -6026,7 +6244,7 @@
   <dimension ref="B2:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6067,7 +6285,7 @@
         <v>86</v>
       </c>
       <c r="G3" s="95"/>
-      <c r="H3" s="211" t="s">
+      <c r="H3" s="207" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="97"/>
@@ -6100,7 +6318,7 @@
       <c r="G4" s="24">
         <v>90</v>
       </c>
-      <c r="H4" s="212"/>
+      <c r="H4" s="208"/>
       <c r="I4" s="24" t="s">
         <v>31</v>
       </c>
@@ -6130,37 +6348,35 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="139" t="s">
-        <v>198</v>
+      <c r="C5" s="135" t="s">
+        <v>171</v>
       </c>
       <c r="D5" s="93">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="E5" s="94">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="F5" s="94">
-        <v>0.9</v>
-      </c>
-      <c r="G5" s="94">
-        <v>0.4</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="94"/>
       <c r="H5" s="99">
         <f t="shared" ref="H5:H11" si="0">SUM(D5:G5)</f>
-        <v>3.8</v>
+        <v>2.3000000000000003</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20">
         <v>0.3</v>
       </c>
       <c r="K5" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="20">
         <v>0.8</v>
       </c>
-      <c r="L5" s="20">
+      <c r="M5" s="20">
         <v>1</v>
-      </c>
-      <c r="M5" s="20">
-        <v>1.5</v>
       </c>
       <c r="N5" s="20">
         <v>2</v>
@@ -6168,7 +6384,7 @@
       <c r="O5" s="20"/>
       <c r="P5" s="98">
         <f>SUM(I5:O5)</f>
-        <v>5.6</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6177,46 +6393,48 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="D6" s="94">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="E6" s="94">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="F6" s="94">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="G6" s="94">
         <v>0.2</v>
       </c>
       <c r="H6" s="99">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I6" s="20"/>
+        <v>6.5</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0.3</v>
+      </c>
       <c r="J6" s="20">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K6" s="20">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L6" s="20">
         <v>1</v>
       </c>
       <c r="M6" s="20">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N6" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O6" s="20">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="P6" s="98">
         <f t="shared" ref="P6:P11" si="1">SUM(I6:O6)</f>
-        <v>6.6</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6356,19 +6574,19 @@
       </c>
       <c r="D12" s="23">
         <f>SUM(D5:D11)</f>
-        <v>2.8</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="E12" s="23">
         <f t="shared" ref="E12:P12" si="3">SUM(E5:E11)</f>
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="23">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="G12" s="23">
         <f t="shared" si="3"/>
-        <v>0.60000000000000009</v>
+        <v>0.2</v>
       </c>
       <c r="H12" s="23">
         <f t="shared" si="3"/>
@@ -6376,19 +6594,19 @@
       </c>
       <c r="I12" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J12" s="23">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K12" s="23">
         <f t="shared" si="3"/>
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L12" s="23">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="M12" s="23">
         <f t="shared" si="3"/>
@@ -6396,15 +6614,15 @@
       </c>
       <c r="N12" s="23">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O12" s="23">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="P12" s="23">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
@@ -6426,10 +6644,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:O102"/>
+  <dimension ref="B2:O107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="T86" sqref="T86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6513,286 +6731,290 @@
       <c r="B4" s="51">
         <v>1</v>
       </c>
-      <c r="C4" s="134" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="138" t="s">
-        <v>165</v>
+      <c r="C4" s="131" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="134" t="s">
+        <v>150</v>
       </c>
       <c r="E4" s="120">
         <v>8985498122</v>
       </c>
-      <c r="F4" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="133" t="s">
-        <v>167</v>
+      <c r="F4" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="130" t="s">
+        <v>152</v>
       </c>
       <c r="H4" s="120">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4" s="120">
         <v>5</v>
       </c>
       <c r="J4" s="118">
-        <v>0.4</v>
-      </c>
-      <c r="K4" s="125" t="s">
-        <v>227</v>
-      </c>
-      <c r="L4" s="126">
-        <v>19</v>
+        <v>0.3</v>
+      </c>
+      <c r="K4" s="124" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" s="125">
+        <v>73</v>
       </c>
       <c r="M4" s="118">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N4" s="118" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="118"/>
+        <v>36</v>
+      </c>
+      <c r="O4" s="118" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="51">
         <v>2</v>
       </c>
-      <c r="C5" s="135" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="123" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="129">
-        <v>9949411979</v>
-      </c>
-      <c r="F5" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="G5" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" s="129">
-        <v>10</v>
-      </c>
-      <c r="I5" s="129">
-        <v>6</v>
-      </c>
-      <c r="J5" s="128">
+      <c r="C5" s="131" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="134" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="120">
+        <v>8985498122</v>
+      </c>
+      <c r="F5" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="120">
+        <v>2</v>
+      </c>
+      <c r="I5" s="120">
+        <v>1</v>
+      </c>
+      <c r="J5" s="118">
         <v>0.2</v>
       </c>
-      <c r="K5" s="125">
-        <v>45147</v>
-      </c>
-      <c r="L5" s="126">
+      <c r="K5" s="124">
+        <v>45056</v>
+      </c>
+      <c r="L5" s="125">
         <v>31</v>
       </c>
-      <c r="M5" s="129">
-        <v>40</v>
-      </c>
-      <c r="N5" s="129" t="s">
+      <c r="M5" s="118">
+        <v>35</v>
+      </c>
+      <c r="N5" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="118" t="s">
-        <v>202</v>
-      </c>
+      <c r="O5" s="118"/>
     </row>
     <row r="6" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="51">
         <v>3</v>
       </c>
-      <c r="C6" s="121" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="135" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="122">
-        <v>9704782802</v>
-      </c>
-      <c r="F6" s="135" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H6" s="129">
+      <c r="C6" s="132" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="123" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="128">
+        <v>9949411979</v>
+      </c>
+      <c r="F6" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="128">
+        <v>10</v>
+      </c>
+      <c r="I6" s="128">
         <v>6</v>
       </c>
-      <c r="I6" s="129">
-        <v>5</v>
-      </c>
-      <c r="J6" s="128">
-        <v>0.4</v>
-      </c>
-      <c r="K6" s="130">
-        <v>45060</v>
-      </c>
-      <c r="L6" s="126">
-        <v>107</v>
-      </c>
-      <c r="M6" s="127">
-        <v>120</v>
-      </c>
-      <c r="N6" s="118" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="118"/>
+      <c r="J6" s="127">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="124">
+        <v>45147</v>
+      </c>
+      <c r="L6" s="125">
+        <v>84</v>
+      </c>
+      <c r="M6" s="128">
+        <v>140</v>
+      </c>
+      <c r="N6" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="118" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="7" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="51">
         <v>4</v>
       </c>
       <c r="C7" s="121" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" s="135" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+      <c r="D7" s="132" t="s">
+        <v>157</v>
       </c>
       <c r="E7" s="119">
         <v>9182442627</v>
       </c>
-      <c r="F7" s="137" t="s">
-        <v>174</v>
-      </c>
-      <c r="G7" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H7" s="129">
+      <c r="F7" s="133" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="128">
         <v>2</v>
       </c>
-      <c r="I7" s="129">
+      <c r="I7" s="128">
         <v>1</v>
       </c>
-      <c r="J7" s="128">
+      <c r="J7" s="127">
         <v>0.2</v>
       </c>
-      <c r="K7" s="130">
+      <c r="K7" s="129">
         <v>45145</v>
       </c>
-      <c r="L7" s="126">
-        <v>62</v>
-      </c>
-      <c r="M7" s="127">
-        <v>60</v>
+      <c r="L7" s="125">
+        <v>91</v>
+      </c>
+      <c r="M7" s="126">
+        <v>75</v>
       </c>
       <c r="N7" s="118" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="129"/>
+        <v>37</v>
+      </c>
+      <c r="O7" s="128"/>
     </row>
     <row r="8" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="51">
         <v>5</v>
       </c>
       <c r="C8" s="121" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="135" t="s">
-        <v>126</v>
+        <v>175</v>
+      </c>
+      <c r="D8" s="132" t="s">
+        <v>157</v>
       </c>
       <c r="E8" s="119"/>
-      <c r="F8" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="G8" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H8" s="129">
+      <c r="F8" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="128">
         <v>2</v>
       </c>
-      <c r="I8" s="129">
+      <c r="I8" s="128">
         <v>1</v>
       </c>
-      <c r="J8" s="128">
+      <c r="J8" s="127">
         <v>0.1</v>
       </c>
-      <c r="K8" s="130" t="s">
-        <v>195</v>
-      </c>
-      <c r="L8" s="126">
-        <v>34</v>
-      </c>
-      <c r="M8" s="127">
+      <c r="K8" s="129">
+        <v>45056</v>
+      </c>
+      <c r="L8" s="125">
+        <v>32</v>
+      </c>
+      <c r="M8" s="126">
         <v>20</v>
       </c>
       <c r="N8" s="118" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="129"/>
+        <v>33</v>
+      </c>
+      <c r="O8" s="128"/>
     </row>
     <row r="9" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="51">
         <v>6</v>
       </c>
       <c r="C9" s="121" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="135" t="s">
-        <v>177</v>
+        <v>160</v>
+      </c>
+      <c r="D9" s="132" t="s">
+        <v>120</v>
       </c>
       <c r="E9" s="119"/>
-      <c r="F9" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="G9" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H9" s="129">
+      <c r="F9" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="128">
         <v>2</v>
       </c>
-      <c r="I9" s="129">
+      <c r="I9" s="128">
         <v>1</v>
       </c>
-      <c r="J9" s="128">
-        <v>0.2</v>
-      </c>
-      <c r="K9" s="130" t="s">
-        <v>183</v>
-      </c>
-      <c r="L9" s="126">
-        <v>76</v>
-      </c>
-      <c r="M9" s="127">
-        <v>65</v>
+      <c r="J9" s="127">
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="129" t="s">
+        <v>169</v>
+      </c>
+      <c r="L9" s="125">
+        <v>89</v>
+      </c>
+      <c r="M9" s="126">
+        <v>40</v>
       </c>
       <c r="N9" s="118" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="118"/>
+        <v>37</v>
+      </c>
+      <c r="O9" s="128" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="10" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="51">
         <v>7</v>
       </c>
       <c r="C10" s="121" t="s">
-        <v>179</v>
-      </c>
-      <c r="D10" s="135" t="s">
-        <v>180</v>
+        <v>234</v>
+      </c>
+      <c r="D10" s="132" t="s">
+        <v>161</v>
       </c>
       <c r="E10" s="119"/>
-      <c r="F10" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="G10" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H10" s="129">
-        <v>3</v>
-      </c>
-      <c r="I10" s="129">
-        <v>3</v>
-      </c>
-      <c r="J10" s="128">
-        <v>0.2</v>
-      </c>
-      <c r="K10" s="130" t="s">
-        <v>192</v>
-      </c>
-      <c r="L10" s="126">
-        <v>59</v>
-      </c>
-      <c r="M10" s="127">
-        <v>55</v>
+      <c r="F10" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="128">
+        <v>2</v>
+      </c>
+      <c r="I10" s="128">
+        <v>1</v>
+      </c>
+      <c r="J10" s="127">
+        <v>0.3</v>
+      </c>
+      <c r="K10" s="129" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="125">
+        <v>52</v>
+      </c>
+      <c r="M10" s="126">
+        <v>65</v>
       </c>
       <c r="N10" s="118" t="s">
         <v>35</v>
@@ -6804,80 +7026,78 @@
         <v>8</v>
       </c>
       <c r="C11" s="121" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="135" t="s">
-        <v>181</v>
+        <v>188</v>
+      </c>
+      <c r="D11" s="132" t="s">
+        <v>161</v>
       </c>
       <c r="E11" s="119"/>
-      <c r="F11" s="135" t="s">
-        <v>172</v>
-      </c>
-      <c r="G11" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H11" s="129">
-        <v>3</v>
-      </c>
-      <c r="I11" s="129">
+      <c r="F11" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="128">
+        <v>2</v>
+      </c>
+      <c r="I11" s="128">
         <v>1</v>
       </c>
-      <c r="J11" s="128">
-        <v>0.3</v>
-      </c>
-      <c r="K11" s="130">
-        <v>45087</v>
-      </c>
-      <c r="L11" s="126">
-        <v>87</v>
-      </c>
-      <c r="M11" s="127">
-        <v>80</v>
+      <c r="J11" s="127">
+        <v>0.2</v>
+      </c>
+      <c r="K11" s="129" t="s">
+        <v>190</v>
+      </c>
+      <c r="L11" s="125">
+        <v>76</v>
+      </c>
+      <c r="M11" s="126">
+        <v>70</v>
       </c>
       <c r="N11" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="118" t="s">
-        <v>229</v>
-      </c>
+      <c r="O11" s="118"/>
     </row>
     <row r="12" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="51">
         <v>9</v>
       </c>
       <c r="C12" s="121" t="s">
-        <v>182</v>
-      </c>
-      <c r="D12" s="135" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="D12" s="132" t="s">
+        <v>154</v>
       </c>
       <c r="E12" s="119"/>
-      <c r="F12" s="135" t="s">
-        <v>172</v>
-      </c>
-      <c r="G12" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H12" s="129">
-        <v>1</v>
-      </c>
-      <c r="I12" s="129">
-        <v>1</v>
-      </c>
-      <c r="J12" s="128">
-        <v>0.2</v>
-      </c>
-      <c r="K12" s="130">
-        <v>45089</v>
-      </c>
-      <c r="L12" s="126">
-        <v>84</v>
-      </c>
-      <c r="M12" s="127">
-        <v>60</v>
+      <c r="F12" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="128">
+        <v>3</v>
+      </c>
+      <c r="I12" s="128">
+        <v>3</v>
+      </c>
+      <c r="J12" s="127">
+        <v>0.3</v>
+      </c>
+      <c r="K12" s="129" t="s">
+        <v>169</v>
+      </c>
+      <c r="L12" s="125">
+        <v>56</v>
+      </c>
+      <c r="M12" s="126">
+        <v>70</v>
       </c>
       <c r="N12" s="118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="118"/>
     </row>
@@ -6886,38 +7106,38 @@
         <v>10</v>
       </c>
       <c r="C13" s="121" t="s">
-        <v>226</v>
-      </c>
-      <c r="D13" s="135" t="s">
-        <v>177</v>
+        <v>217</v>
+      </c>
+      <c r="D13" s="132" t="s">
+        <v>161</v>
       </c>
       <c r="E13" s="119"/>
-      <c r="F13" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="G13" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H13" s="129">
+      <c r="F13" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="128">
         <v>2</v>
       </c>
-      <c r="I13" s="129">
+      <c r="I13" s="128">
         <v>1</v>
       </c>
-      <c r="J13" s="128">
+      <c r="J13" s="127">
         <v>0.2</v>
       </c>
-      <c r="K13" s="130" t="s">
-        <v>228</v>
-      </c>
-      <c r="L13" s="126">
-        <v>22</v>
-      </c>
-      <c r="M13" s="127">
-        <v>20</v>
+      <c r="K13" s="129">
+        <v>45053</v>
+      </c>
+      <c r="L13" s="125">
+        <v>55</v>
+      </c>
+      <c r="M13" s="126">
+        <v>60</v>
       </c>
       <c r="N13" s="118" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O13" s="118"/>
     </row>
@@ -6925,39 +7145,39 @@
       <c r="B14" s="51">
         <v>11</v>
       </c>
-      <c r="C14" s="121" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="135" t="s">
-        <v>171</v>
-      </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="135" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H14" s="129">
-        <v>1</v>
-      </c>
-      <c r="I14" s="129">
-        <v>1</v>
-      </c>
-      <c r="J14" s="128">
-        <v>0.2</v>
-      </c>
-      <c r="K14" s="130" t="s">
-        <v>185</v>
-      </c>
-      <c r="L14" s="126">
-        <v>70</v>
-      </c>
-      <c r="M14" s="127">
-        <v>55</v>
+      <c r="C14" s="183" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="183" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="51"/>
+      <c r="F14" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="128">
+        <v>2</v>
+      </c>
+      <c r="I14" s="128">
+        <v>2</v>
+      </c>
+      <c r="J14" s="127">
+        <v>0.3</v>
+      </c>
+      <c r="K14" s="129">
+        <v>45146</v>
+      </c>
+      <c r="L14" s="125">
+        <v>75</v>
+      </c>
+      <c r="M14" s="126">
+        <v>90</v>
       </c>
       <c r="N14" s="118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O14" s="118"/>
     </row>
@@ -6965,322 +7185,318 @@
       <c r="B15" s="51">
         <v>12</v>
       </c>
-      <c r="C15" s="121" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E15" s="119"/>
-      <c r="F15" s="135" t="s">
-        <v>172</v>
-      </c>
-      <c r="G15" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H15" s="129">
-        <v>3</v>
-      </c>
-      <c r="I15" s="129">
-        <v>3</v>
-      </c>
-      <c r="J15" s="128">
-        <v>0.4</v>
-      </c>
-      <c r="K15" s="130" t="s">
-        <v>192</v>
-      </c>
-      <c r="L15" s="126">
-        <v>51</v>
-      </c>
-      <c r="M15" s="127">
-        <v>90</v>
+      <c r="C15" s="183" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="183" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="51"/>
+      <c r="F15" s="133" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="128">
+        <v>2</v>
+      </c>
+      <c r="I15" s="128">
+        <v>1</v>
+      </c>
+      <c r="J15" s="127">
+        <v>0.2</v>
+      </c>
+      <c r="K15" s="129">
+        <v>45055</v>
+      </c>
+      <c r="L15" s="125">
+        <v>61</v>
+      </c>
+      <c r="M15" s="126">
+        <v>60</v>
       </c>
       <c r="N15" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="118" t="s">
-        <v>175</v>
-      </c>
+      <c r="O15" s="118"/>
     </row>
     <row r="16" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="51">
-        <v>14</v>
-      </c>
-      <c r="C16" s="136" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="136" t="s">
-        <v>173</v>
+        <v>13</v>
+      </c>
+      <c r="C16" s="183" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="183" t="s">
+        <v>155</v>
       </c>
       <c r="E16" s="51"/>
-      <c r="F16" s="136" t="s">
-        <v>166</v>
-      </c>
-      <c r="G16" s="132" t="s">
-        <v>167</v>
-      </c>
-      <c r="H16" s="51">
+      <c r="F16" s="133" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="128">
         <v>2</v>
       </c>
-      <c r="I16" s="51">
+      <c r="I16" s="128">
         <v>2</v>
       </c>
-      <c r="J16" s="51">
+      <c r="J16" s="127">
         <v>0.2</v>
       </c>
-      <c r="K16" s="131" t="s">
-        <v>192</v>
-      </c>
-      <c r="L16" s="51">
-        <v>59</v>
-      </c>
-      <c r="M16" s="127">
-        <v>55</v>
+      <c r="K16" s="129" t="s">
+        <v>196</v>
+      </c>
+      <c r="L16" s="125">
+        <v>39</v>
+      </c>
+      <c r="M16" s="126">
+        <v>45</v>
       </c>
       <c r="N16" s="118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O16" s="118"/>
     </row>
     <row r="17" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="51">
-        <v>15</v>
-      </c>
-      <c r="C17" s="121" t="s">
-        <v>193</v>
-      </c>
-      <c r="D17" s="135" t="s">
-        <v>252</v>
-      </c>
-      <c r="E17" s="119"/>
-      <c r="F17" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="G17" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H17" s="129">
+        <v>14</v>
+      </c>
+      <c r="C17" s="183" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" s="183" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="51"/>
+      <c r="F17" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="128">
         <v>2</v>
       </c>
-      <c r="I17" s="129">
+      <c r="I17" s="128">
         <v>1</v>
       </c>
-      <c r="J17" s="128">
+      <c r="J17" s="127">
         <v>0.2</v>
       </c>
-      <c r="K17" s="130">
-        <v>45146</v>
-      </c>
-      <c r="L17" s="126">
-        <v>31</v>
-      </c>
-      <c r="M17" s="127">
+      <c r="K17" s="129">
+        <v>45025</v>
+      </c>
+      <c r="L17" s="125">
+        <v>62</v>
+      </c>
+      <c r="M17" s="126">
+        <v>60</v>
+      </c>
+      <c r="N17" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="118" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="118" t="s">
-        <v>229</v>
-      </c>
+      <c r="O17" s="118"/>
     </row>
     <row r="18" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="51">
-        <v>16</v>
-      </c>
-      <c r="C18" s="121" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="135" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="119"/>
-      <c r="F18" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="G18" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H18" s="129">
-        <v>3</v>
-      </c>
-      <c r="I18" s="129">
-        <v>3</v>
-      </c>
-      <c r="J18" s="128">
-        <v>0.3</v>
-      </c>
-      <c r="K18" s="130" t="s">
-        <v>195</v>
-      </c>
-      <c r="L18" s="126">
-        <v>59</v>
-      </c>
-      <c r="M18" s="127">
-        <v>75</v>
-      </c>
-      <c r="N18" s="118" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="C18" s="183" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="183" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="51"/>
+      <c r="F18" s="133" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="128">
+        <v>4</v>
+      </c>
+      <c r="I18" s="128">
+        <v>2</v>
+      </c>
+      <c r="J18" s="127">
+        <v>0.6</v>
+      </c>
+      <c r="K18" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="L18" s="125">
+        <v>15</v>
+      </c>
+      <c r="M18" s="126">
+        <v>40</v>
+      </c>
+      <c r="N18" s="118">
+        <v>2</v>
       </c>
       <c r="O18" s="118"/>
     </row>
     <row r="19" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="51">
-        <v>17</v>
-      </c>
-      <c r="C19" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="183" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="183" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="51"/>
+      <c r="F19" s="133" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="135" t="s">
-        <v>177</v>
-      </c>
-      <c r="E19" s="119"/>
-      <c r="F19" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="G19" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H19" s="129">
+      <c r="G19" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H19" s="128">
         <v>2</v>
       </c>
-      <c r="I19" s="129">
-        <v>1</v>
-      </c>
-      <c r="J19" s="128">
-        <v>0.2</v>
-      </c>
-      <c r="K19" s="130">
-        <v>45053</v>
-      </c>
-      <c r="L19" s="126">
-        <v>65</v>
-      </c>
-      <c r="M19" s="127">
-        <v>60</v>
+      <c r="I19" s="128">
+        <v>3</v>
+      </c>
+      <c r="J19" s="127">
+        <v>0.4</v>
+      </c>
+      <c r="K19" s="129">
+        <v>44994</v>
+      </c>
+      <c r="L19" s="125">
+        <v>62</v>
+      </c>
+      <c r="M19" s="126">
+        <v>120</v>
       </c>
       <c r="N19" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="118"/>
+      <c r="O19" s="118" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="20" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="51">
-        <v>18</v>
-      </c>
-      <c r="C20" s="121" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" s="135" t="s">
-        <v>180</v>
-      </c>
-      <c r="E20" s="119"/>
-      <c r="F20" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="G20" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H20" s="129">
+        <v>17</v>
+      </c>
+      <c r="C20" s="183" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="183" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="51"/>
+      <c r="F20" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H20" s="128">
+        <v>3</v>
+      </c>
+      <c r="I20" s="128">
         <v>2</v>
       </c>
-      <c r="I20" s="129">
-        <v>1</v>
-      </c>
-      <c r="J20" s="128">
-        <v>0.3</v>
-      </c>
-      <c r="K20" s="130" t="s">
-        <v>196</v>
-      </c>
-      <c r="L20" s="126">
-        <v>72</v>
-      </c>
-      <c r="M20" s="127">
-        <v>80</v>
+      <c r="J20" s="127">
+        <v>0.2</v>
+      </c>
+      <c r="K20" s="129">
+        <v>45268</v>
+      </c>
+      <c r="L20" s="125">
+        <v>82</v>
+      </c>
+      <c r="M20" s="126">
+        <v>60</v>
       </c>
       <c r="N20" s="118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O20" s="118"/>
     </row>
     <row r="21" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="51">
-        <v>19</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="D21" s="49" t="s">
-        <v>136</v>
+        <v>18</v>
+      </c>
+      <c r="C21" s="183" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="183" t="s">
+        <v>155</v>
       </c>
       <c r="E21" s="51"/>
-      <c r="F21" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="G21" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H21" s="129">
+      <c r="F21" s="133" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="128">
         <v>2</v>
       </c>
-      <c r="I21" s="129">
+      <c r="I21" s="128">
         <v>2</v>
       </c>
-      <c r="J21" s="128">
-        <v>0.3</v>
-      </c>
-      <c r="K21" s="130">
-        <v>45146</v>
-      </c>
-      <c r="L21" s="126">
-        <v>79</v>
-      </c>
-      <c r="M21" s="127">
-        <v>90</v>
+      <c r="J21" s="127">
+        <v>0.2</v>
+      </c>
+      <c r="K21" s="129">
+        <v>45117</v>
+      </c>
+      <c r="L21" s="125">
+        <v>28</v>
+      </c>
+      <c r="M21" s="126">
+        <v>35</v>
       </c>
       <c r="N21" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="O21" s="118" t="s">
-        <v>229</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="O21" s="118"/>
     </row>
     <row r="22" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="51">
-        <v>20</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>126</v>
+        <v>19</v>
+      </c>
+      <c r="C22" s="183" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="183" t="s">
+        <v>120</v>
       </c>
       <c r="E22" s="51"/>
-      <c r="F22" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="G22" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H22" s="129">
+      <c r="F22" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="128">
         <v>2</v>
       </c>
-      <c r="I22" s="129">
+      <c r="I22" s="128">
         <v>2</v>
       </c>
-      <c r="J22" s="128">
+      <c r="J22" s="127">
         <v>0.2</v>
       </c>
-      <c r="K22" s="130">
-        <v>45141</v>
-      </c>
-      <c r="L22" s="126">
-        <v>35</v>
-      </c>
-      <c r="M22" s="127">
-        <v>35</v>
+      <c r="K22" s="129">
+        <v>45148</v>
+      </c>
+      <c r="L22" s="125">
+        <v>27</v>
+      </c>
+      <c r="M22" s="126">
+        <v>30</v>
       </c>
       <c r="N22" s="118" t="s">
         <v>33</v>
@@ -7289,237 +7505,239 @@
     </row>
     <row r="23" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="51">
-        <v>21</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>206</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>173</v>
+        <v>20</v>
+      </c>
+      <c r="C23" s="183" t="s">
+        <v>218</v>
+      </c>
+      <c r="D23" s="183" t="s">
+        <v>120</v>
       </c>
       <c r="E23" s="51"/>
-      <c r="F23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="G23" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H23" s="129">
-        <v>2</v>
-      </c>
-      <c r="I23" s="129">
+      <c r="F23" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="128">
         <v>1</v>
       </c>
-      <c r="J23" s="128">
+      <c r="I23" s="128">
+        <v>1</v>
+      </c>
+      <c r="J23" s="127">
         <v>0.2</v>
       </c>
-      <c r="K23" s="130">
-        <v>45117</v>
-      </c>
-      <c r="L23" s="126">
-        <v>56</v>
-      </c>
-      <c r="M23" s="127">
-        <v>50</v>
+      <c r="K23" s="129" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" s="125">
+        <v>78</v>
+      </c>
+      <c r="M23" s="126">
+        <v>65</v>
       </c>
       <c r="N23" s="118" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O23" s="118"/>
     </row>
     <row r="24" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="51">
-        <v>22</v>
-      </c>
-      <c r="C24" s="195" t="s">
-        <v>210</v>
-      </c>
-      <c r="D24" s="195" t="s">
-        <v>171</v>
+        <v>21</v>
+      </c>
+      <c r="C24" s="183" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="183" t="s">
+        <v>157</v>
       </c>
       <c r="E24" s="51"/>
-      <c r="F24" s="137" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H24" s="129">
-        <v>4</v>
-      </c>
-      <c r="I24" s="129">
-        <v>4</v>
-      </c>
-      <c r="J24" s="128">
-        <v>0.4</v>
-      </c>
-      <c r="K24" s="130">
-        <v>45152</v>
-      </c>
-      <c r="L24" s="126">
-        <v>25</v>
-      </c>
-      <c r="M24" s="127">
-        <v>70</v>
-      </c>
-      <c r="N24" s="118" t="s">
-        <v>33</v>
+      <c r="F24" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" s="128">
+        <v>2</v>
+      </c>
+      <c r="I24" s="128">
+        <v>1</v>
+      </c>
+      <c r="J24" s="127">
+        <v>0.2</v>
+      </c>
+      <c r="K24" s="129" t="s">
+        <v>237</v>
+      </c>
+      <c r="L24" s="125">
+        <v>12</v>
+      </c>
+      <c r="M24" s="126">
+        <v>10</v>
+      </c>
+      <c r="N24" s="118">
+        <v>2</v>
       </c>
       <c r="O24" s="118"/>
     </row>
     <row r="25" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="51">
-        <v>23</v>
-      </c>
-      <c r="C25" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="D25" s="195" t="s">
-        <v>114</v>
+        <v>22</v>
+      </c>
+      <c r="C25" s="183" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>161</v>
       </c>
       <c r="E25" s="51"/>
-      <c r="F25" s="137" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H25" s="129">
+      <c r="F25" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" s="128">
         <v>2</v>
       </c>
-      <c r="I25" s="129">
-        <v>1</v>
-      </c>
-      <c r="J25" s="128">
-        <v>0.2</v>
-      </c>
-      <c r="K25" s="130">
-        <v>45151</v>
-      </c>
-      <c r="L25" s="126">
-        <v>26</v>
-      </c>
-      <c r="M25" s="127">
-        <v>25</v>
+      <c r="I25" s="128">
+        <v>2</v>
+      </c>
+      <c r="J25" s="127">
+        <v>0.3</v>
+      </c>
+      <c r="K25" s="129" t="s">
+        <v>192</v>
+      </c>
+      <c r="L25" s="125">
+        <v>69</v>
+      </c>
+      <c r="M25" s="126">
+        <v>80</v>
       </c>
       <c r="N25" s="118" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O25" s="118"/>
     </row>
     <row r="26" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="51">
-        <v>24</v>
-      </c>
-      <c r="C26" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="D26" s="195" t="s">
-        <v>114</v>
+        <v>23</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>130</v>
       </c>
       <c r="E26" s="51"/>
-      <c r="F26" s="137" t="s">
-        <v>172</v>
-      </c>
-      <c r="G26" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H26" s="129">
-        <v>3</v>
-      </c>
-      <c r="I26" s="129">
+      <c r="F26" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="128">
+        <v>2</v>
+      </c>
+      <c r="I26" s="128">
         <v>1</v>
       </c>
-      <c r="J26" s="128">
+      <c r="J26" s="127">
         <v>0.3</v>
       </c>
-      <c r="K26" s="130">
-        <v>45152</v>
-      </c>
-      <c r="L26" s="126">
-        <v>27</v>
-      </c>
-      <c r="M26" s="127">
-        <v>45</v>
+      <c r="K26" s="129">
+        <v>44966</v>
+      </c>
+      <c r="L26" s="125">
+        <v>59</v>
+      </c>
+      <c r="M26" s="126">
+        <v>75</v>
       </c>
       <c r="N26" s="118" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="118"/>
+        <v>35</v>
+      </c>
+      <c r="O26" s="118" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="27" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="51">
-        <v>25</v>
-      </c>
-      <c r="C27" s="195" t="s">
-        <v>213</v>
-      </c>
-      <c r="D27" s="195" t="s">
-        <v>173</v>
+        <v>24</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>130</v>
       </c>
       <c r="E27" s="51"/>
-      <c r="F27" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="G27" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H27" s="129">
+      <c r="F27" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="128">
+        <v>1</v>
+      </c>
+      <c r="I27" s="128">
+        <v>1</v>
+      </c>
+      <c r="J27" s="127">
+        <v>0.1</v>
+      </c>
+      <c r="K27" s="129" t="s">
+        <v>229</v>
+      </c>
+      <c r="L27" s="125">
+        <v>10</v>
+      </c>
+      <c r="M27" s="126">
+        <v>5</v>
+      </c>
+      <c r="N27" s="118">
         <v>2</v>
-      </c>
-      <c r="I27" s="129">
-        <v>2</v>
-      </c>
-      <c r="J27" s="128">
-        <v>0.2</v>
-      </c>
-      <c r="K27" s="130">
-        <v>45146</v>
-      </c>
-      <c r="L27" s="126">
-        <v>33</v>
-      </c>
-      <c r="M27" s="127">
-        <v>35</v>
-      </c>
-      <c r="N27" s="118" t="s">
-        <v>33</v>
       </c>
       <c r="O27" s="118"/>
     </row>
     <row r="28" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="51">
-        <v>26</v>
-      </c>
-      <c r="C28" s="195" t="s">
-        <v>214</v>
-      </c>
-      <c r="D28" s="195" t="s">
-        <v>171</v>
+        <v>25</v>
+      </c>
+      <c r="C28" s="183" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="183" t="s">
+        <v>155</v>
       </c>
       <c r="E28" s="51"/>
-      <c r="F28" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="G28" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H28" s="129">
+      <c r="F28" s="133" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H28" s="128">
         <v>2</v>
       </c>
-      <c r="I28" s="129">
-        <v>2</v>
-      </c>
-      <c r="J28" s="128">
+      <c r="I28" s="128">
+        <v>1</v>
+      </c>
+      <c r="J28" s="127">
         <v>0.2</v>
       </c>
-      <c r="K28" s="130">
-        <v>45147</v>
-      </c>
-      <c r="L28" s="126">
+      <c r="K28" s="129">
+        <v>45056</v>
+      </c>
+      <c r="L28" s="125">
         <v>31</v>
       </c>
-      <c r="M28" s="127">
+      <c r="M28" s="126">
         <v>35</v>
       </c>
       <c r="N28" s="118" t="s">
@@ -7529,198 +7747,198 @@
     </row>
     <row r="29" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="51">
-        <v>27</v>
-      </c>
-      <c r="C29" s="195" t="s">
-        <v>230</v>
-      </c>
-      <c r="D29" s="195" t="s">
-        <v>171</v>
+        <v>26</v>
+      </c>
+      <c r="C29" s="183" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="183" t="s">
+        <v>162</v>
       </c>
       <c r="E29" s="51"/>
-      <c r="F29" s="137" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H29" s="129">
-        <v>3</v>
-      </c>
-      <c r="I29" s="129">
+      <c r="F29" s="133" t="s">
+        <v>156</v>
+      </c>
+      <c r="G29" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" s="128">
+        <v>2</v>
+      </c>
+      <c r="I29" s="128">
         <v>1</v>
       </c>
-      <c r="J29" s="128">
-        <v>0.3</v>
-      </c>
-      <c r="K29" s="130" t="s">
-        <v>235</v>
-      </c>
-      <c r="L29" s="126">
-        <v>13</v>
-      </c>
-      <c r="M29" s="127">
-        <v>15</v>
-      </c>
-      <c r="N29" s="118">
-        <v>2</v>
+      <c r="J29" s="127">
+        <v>0.2</v>
+      </c>
+      <c r="K29" s="129" t="s">
+        <v>219</v>
+      </c>
+      <c r="L29" s="125">
+        <v>49</v>
+      </c>
+      <c r="M29" s="126">
+        <v>50</v>
+      </c>
+      <c r="N29" s="118" t="s">
+        <v>35</v>
       </c>
       <c r="O29" s="118"/>
     </row>
     <row r="30" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="51">
-        <v>28</v>
-      </c>
-      <c r="C30" s="195" t="s">
-        <v>248</v>
-      </c>
-      <c r="D30" s="195" t="s">
-        <v>171</v>
+        <v>27</v>
+      </c>
+      <c r="C30" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="D30" s="183" t="s">
+        <v>155</v>
       </c>
       <c r="E30" s="51"/>
-      <c r="F30" s="137" t="s">
-        <v>172</v>
-      </c>
-      <c r="G30" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H30" s="129">
-        <v>2</v>
-      </c>
-      <c r="I30" s="129">
-        <v>2</v>
-      </c>
-      <c r="J30" s="128">
-        <v>0.2</v>
-      </c>
-      <c r="K30" s="130" t="s">
-        <v>253</v>
-      </c>
-      <c r="L30" s="126">
-        <v>55</v>
-      </c>
-      <c r="M30" s="127">
-        <v>55</v>
-      </c>
-      <c r="N30" s="118" t="s">
-        <v>35</v>
+      <c r="F30" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="202" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" s="128">
+        <v>1</v>
+      </c>
+      <c r="I30" s="128">
+        <v>1</v>
+      </c>
+      <c r="J30" s="127">
+        <v>0.1</v>
+      </c>
+      <c r="K30" s="129" t="s">
+        <v>246</v>
+      </c>
+      <c r="L30" s="125">
+        <v>5</v>
+      </c>
+      <c r="M30" s="126">
+        <v>3</v>
+      </c>
+      <c r="N30" s="118">
+        <v>1</v>
       </c>
       <c r="O30" s="118"/>
     </row>
     <row r="31" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="51">
-        <v>29</v>
-      </c>
-      <c r="C31" s="195" t="s">
-        <v>249</v>
-      </c>
-      <c r="D31" s="195" t="s">
-        <v>114</v>
+        <v>28</v>
+      </c>
+      <c r="C31" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="D31" s="183" t="s">
+        <v>155</v>
       </c>
       <c r="E31" s="51"/>
-      <c r="F31" s="137" t="s">
-        <v>172</v>
-      </c>
-      <c r="G31" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H31" s="129">
+      <c r="F31" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31" s="202" t="s">
+        <v>152</v>
+      </c>
+      <c r="H31" s="128">
         <v>2</v>
       </c>
-      <c r="I31" s="129">
+      <c r="I31" s="128">
         <v>1</v>
       </c>
-      <c r="J31" s="128">
-        <v>0.2</v>
-      </c>
-      <c r="K31" s="130" t="s">
-        <v>254</v>
-      </c>
-      <c r="L31" s="126">
-        <v>10</v>
-      </c>
-      <c r="M31" s="127">
-        <v>10</v>
-      </c>
-      <c r="N31" s="118">
-        <v>2</v>
+      <c r="J31" s="127">
+        <v>0.1</v>
+      </c>
+      <c r="K31" s="129" t="s">
+        <v>267</v>
+      </c>
+      <c r="L31" s="125">
+        <v>70</v>
+      </c>
+      <c r="M31" s="126">
+        <v>35</v>
+      </c>
+      <c r="N31" s="118" t="s">
+        <v>37</v>
       </c>
       <c r="O31" s="118"/>
     </row>
     <row r="32" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="51">
-        <v>30</v>
-      </c>
-      <c r="C32" s="195" t="s">
-        <v>250</v>
-      </c>
-      <c r="D32" s="195" t="s">
-        <v>150</v>
+        <v>29</v>
+      </c>
+      <c r="C32" s="183" t="s">
+        <v>213</v>
+      </c>
+      <c r="D32" s="183" t="s">
+        <v>155</v>
       </c>
       <c r="E32" s="51"/>
-      <c r="F32" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="G32" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H32" s="129">
-        <v>2</v>
-      </c>
-      <c r="I32" s="129">
-        <v>3</v>
-      </c>
-      <c r="J32" s="128">
-        <v>0.3</v>
-      </c>
-      <c r="K32" s="130">
-        <v>44994</v>
-      </c>
-      <c r="L32" s="126">
-        <v>6</v>
-      </c>
-      <c r="M32" s="127">
-        <v>10</v>
-      </c>
-      <c r="N32" s="118">
-        <v>1</v>
+      <c r="F32" s="133" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="202" t="s">
+        <v>152</v>
+      </c>
+      <c r="H32" s="128">
+        <v>4</v>
+      </c>
+      <c r="I32" s="128">
+        <v>4</v>
+      </c>
+      <c r="J32" s="127">
+        <v>0.1</v>
+      </c>
+      <c r="K32" s="129" t="s">
+        <v>197</v>
+      </c>
+      <c r="L32" s="125">
+        <v>37</v>
+      </c>
+      <c r="M32" s="126">
+        <v>25</v>
+      </c>
+      <c r="N32" s="118" t="s">
+        <v>33</v>
       </c>
       <c r="O32" s="118"/>
     </row>
     <row r="33" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="51">
-        <v>31</v>
-      </c>
-      <c r="C33" s="195" t="s">
-        <v>251</v>
-      </c>
-      <c r="D33" s="195" t="s">
-        <v>173</v>
+        <v>30</v>
+      </c>
+      <c r="C33" s="183" t="s">
+        <v>258</v>
+      </c>
+      <c r="D33" s="183" t="s">
+        <v>157</v>
       </c>
       <c r="E33" s="51"/>
-      <c r="F33" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="G33" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H33" s="129">
-        <v>3</v>
-      </c>
-      <c r="I33" s="129">
+      <c r="F33" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" s="202" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="128">
         <v>2</v>
       </c>
-      <c r="J33" s="128">
+      <c r="I33" s="128">
+        <v>2</v>
+      </c>
+      <c r="J33" s="127">
         <v>0.2</v>
       </c>
-      <c r="K33" s="130">
-        <v>45268</v>
-      </c>
-      <c r="L33" s="126">
-        <v>28</v>
-      </c>
-      <c r="M33" s="127">
-        <v>35</v>
+      <c r="K33" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="L33" s="125">
+        <v>20</v>
+      </c>
+      <c r="M33" s="126">
+        <v>20</v>
       </c>
       <c r="N33" s="118" t="s">
         <v>33</v>
@@ -7729,343 +7947,459 @@
     </row>
     <row r="34" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="51">
-        <v>32</v>
-      </c>
-      <c r="C34" s="195" t="s">
-        <v>231</v>
-      </c>
-      <c r="D34" s="195" t="s">
-        <v>171</v>
+        <v>31</v>
+      </c>
+      <c r="C34" s="183" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="183" t="s">
+        <v>155</v>
       </c>
       <c r="E34" s="51"/>
-      <c r="F34" s="137" t="s">
-        <v>172</v>
-      </c>
-      <c r="G34" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H34" s="129">
-        <v>3</v>
-      </c>
-      <c r="I34" s="129">
+      <c r="F34" s="133" t="s">
+        <v>156</v>
+      </c>
+      <c r="G34" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H34" s="128">
         <v>1</v>
       </c>
-      <c r="J34" s="128">
-        <v>0.3</v>
-      </c>
-      <c r="K34" s="130" t="s">
-        <v>235</v>
-      </c>
-      <c r="L34" s="126">
-        <v>13</v>
-      </c>
-      <c r="M34" s="127">
-        <v>16</v>
-      </c>
-      <c r="N34" s="118">
-        <v>2</v>
-      </c>
-      <c r="O34" s="118"/>
+      <c r="I34" s="128">
+        <v>1</v>
+      </c>
+      <c r="J34" s="127">
+        <v>0.1</v>
+      </c>
+      <c r="K34" s="129" t="s">
+        <v>220</v>
+      </c>
+      <c r="L34" s="125">
+        <v>43</v>
+      </c>
+      <c r="M34" s="126">
+        <v>25</v>
+      </c>
+      <c r="N34" s="118" t="s">
+        <v>34</v>
+      </c>
+      <c r="O34" s="118" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="35" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="51">
+        <v>32</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="51"/>
+      <c r="F35" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G35" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="128">
+        <v>2</v>
+      </c>
+      <c r="I35" s="128">
+        <v>2</v>
+      </c>
+      <c r="J35" s="127">
+        <v>0.2</v>
+      </c>
+      <c r="K35" s="129">
+        <v>45055</v>
+      </c>
+      <c r="L35" s="125">
+        <v>19</v>
+      </c>
+      <c r="M35" s="126">
+        <v>20</v>
+      </c>
+      <c r="N35" s="118" t="s">
         <v>33</v>
-      </c>
-      <c r="C35" s="195" t="s">
-        <v>233</v>
-      </c>
-      <c r="D35" s="195" t="s">
-        <v>171</v>
-      </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="137" t="s">
-        <v>172</v>
-      </c>
-      <c r="G35" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H35" s="129">
-        <v>2</v>
-      </c>
-      <c r="I35" s="129">
-        <v>2</v>
-      </c>
-      <c r="J35" s="128">
-        <v>0.2</v>
-      </c>
-      <c r="K35" s="130" t="s">
-        <v>236</v>
-      </c>
-      <c r="L35" s="126">
-        <v>52</v>
-      </c>
-      <c r="M35" s="127">
-        <v>50</v>
-      </c>
-      <c r="N35" s="118" t="s">
-        <v>35</v>
       </c>
       <c r="O35" s="118"/>
     </row>
     <row r="36" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="51">
-        <v>34</v>
-      </c>
-      <c r="C36" s="195" t="s">
-        <v>232</v>
-      </c>
-      <c r="D36" s="195" t="s">
-        <v>173</v>
+        <v>33</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>162</v>
       </c>
       <c r="E36" s="51"/>
-      <c r="F36" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="G36" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H36" s="129">
+      <c r="F36" s="133" t="s">
+        <v>156</v>
+      </c>
+      <c r="G36" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H36" s="128">
         <v>2</v>
       </c>
-      <c r="I36" s="129">
-        <v>3</v>
-      </c>
-      <c r="J36" s="128">
-        <v>0.2</v>
-      </c>
-      <c r="K36" s="130">
-        <v>44993</v>
-      </c>
-      <c r="L36" s="126">
-        <v>37</v>
-      </c>
-      <c r="M36" s="127">
+      <c r="I36" s="128">
+        <v>1</v>
+      </c>
+      <c r="J36" s="127">
+        <v>0.3</v>
+      </c>
+      <c r="K36" s="129">
+        <v>45026</v>
+      </c>
+      <c r="L36" s="125">
+        <v>31</v>
+      </c>
+      <c r="M36" s="126">
         <v>40</v>
       </c>
       <c r="N36" s="118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O36" s="118"/>
     </row>
     <row r="37" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="51">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D37" s="49" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="E37" s="51"/>
-      <c r="F37" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="G37" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H37" s="129">
-        <v>3</v>
-      </c>
-      <c r="I37" s="129">
-        <v>2</v>
-      </c>
-      <c r="J37" s="128">
-        <v>0.3</v>
-      </c>
-      <c r="K37" s="130" t="s">
-        <v>237</v>
-      </c>
-      <c r="L37" s="126">
-        <v>57</v>
-      </c>
-      <c r="M37" s="127">
-        <v>80</v>
+      <c r="F37" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G37" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H37" s="128">
+        <v>1</v>
+      </c>
+      <c r="I37" s="128">
+        <v>1</v>
+      </c>
+      <c r="J37" s="127">
+        <v>0.1</v>
+      </c>
+      <c r="K37" s="206" t="s">
+        <v>238</v>
+      </c>
+      <c r="L37" s="125">
+        <v>43</v>
+      </c>
+      <c r="M37" s="126">
+        <v>25</v>
       </c>
       <c r="N37" s="118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O37" s="118"/>
     </row>
     <row r="38" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="51">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D38" s="49" t="s">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="E38" s="51"/>
-      <c r="F38" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="G38" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H38" s="129">
+      <c r="F38" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H38" s="128">
+        <v>1</v>
+      </c>
+      <c r="I38" s="128">
+        <v>1</v>
+      </c>
+      <c r="J38" s="127">
+        <v>0.1</v>
+      </c>
+      <c r="K38" s="206" t="s">
+        <v>228</v>
+      </c>
+      <c r="L38" s="125">
+        <v>11</v>
+      </c>
+      <c r="M38" s="126">
+        <v>5</v>
+      </c>
+      <c r="N38" s="118">
         <v>2</v>
-      </c>
-      <c r="I38" s="129">
-        <v>2</v>
-      </c>
-      <c r="J38" s="128">
-        <v>0.2</v>
-      </c>
-      <c r="K38" s="130">
-        <v>45098</v>
-      </c>
-      <c r="L38" s="126">
-        <v>79</v>
-      </c>
-      <c r="M38" s="127">
-        <v>62</v>
-      </c>
-      <c r="N38" s="118" t="s">
-        <v>36</v>
       </c>
       <c r="O38" s="118"/>
     </row>
     <row r="39" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="51">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="D39" s="49" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="E39" s="51"/>
-      <c r="F39" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="G39" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="H39" s="129">
-        <v>1</v>
-      </c>
-      <c r="I39" s="129">
-        <v>1</v>
-      </c>
-      <c r="J39" s="128">
+      <c r="F39" s="133" t="s">
+        <v>156</v>
+      </c>
+      <c r="G39" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H39" s="128">
+        <v>2</v>
+      </c>
+      <c r="I39" s="128">
+        <v>2</v>
+      </c>
+      <c r="J39" s="127">
         <v>0.2</v>
       </c>
-      <c r="K39" s="130">
-        <v>44933</v>
-      </c>
-      <c r="L39" s="126">
-        <v>70</v>
-      </c>
-      <c r="M39" s="127">
+      <c r="K39" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="L39" s="125">
+        <v>52</v>
+      </c>
+      <c r="M39" s="126">
         <v>55</v>
       </c>
       <c r="N39" s="118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O39" s="118"/>
     </row>
     <row r="40" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="51">
-        <v>39</v>
-      </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
+        <v>37</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>120</v>
+      </c>
       <c r="E40" s="51"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
+      <c r="F40" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G40" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H40" s="128">
+        <v>2</v>
+      </c>
+      <c r="I40" s="128">
+        <v>1</v>
+      </c>
+      <c r="J40" s="127">
+        <v>0.1</v>
+      </c>
+      <c r="K40" s="205">
+        <v>45148</v>
+      </c>
+      <c r="L40" s="125">
+        <v>27</v>
+      </c>
+      <c r="M40" s="126">
+        <v>16</v>
+      </c>
+      <c r="N40" s="118" t="s">
+        <v>33</v>
+      </c>
+      <c r="O40" s="118"/>
     </row>
     <row r="41" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="51">
-        <v>40</v>
-      </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+        <v>38</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>130</v>
+      </c>
       <c r="E41" s="51"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="49"/>
+      <c r="F41" s="214" t="s">
+        <v>151</v>
+      </c>
+      <c r="G41" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H41" s="215">
+        <v>2</v>
+      </c>
+      <c r="I41" s="128">
+        <v>2</v>
+      </c>
+      <c r="J41" s="127">
+        <v>0.2</v>
+      </c>
+      <c r="K41" s="205" t="s">
+        <v>270</v>
+      </c>
+      <c r="L41" s="125">
+        <v>30</v>
+      </c>
+      <c r="M41" s="126">
+        <v>35</v>
+      </c>
+      <c r="N41" s="118" t="s">
+        <v>33</v>
+      </c>
+      <c r="O41" s="118"/>
     </row>
     <row r="42" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="51">
-        <v>41</v>
-      </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
+        <v>39</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>161</v>
+      </c>
       <c r="E42" s="51"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="49"/>
+      <c r="F42" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="G42" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H42" s="51">
+        <v>2</v>
+      </c>
+      <c r="I42" s="128">
+        <v>2</v>
+      </c>
+      <c r="J42" s="127">
+        <v>0.2</v>
+      </c>
+      <c r="K42" s="205" t="s">
+        <v>239</v>
+      </c>
+      <c r="L42" s="125">
+        <v>43</v>
+      </c>
+      <c r="M42" s="126">
+        <v>50</v>
+      </c>
+      <c r="N42" s="118" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" s="118" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="43" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="51">
-        <v>42</v>
-      </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
+        <v>40</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>120</v>
+      </c>
       <c r="E43" s="51"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
+      <c r="F43" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H43" s="128">
+        <v>2</v>
+      </c>
+      <c r="I43" s="128">
+        <v>2</v>
+      </c>
+      <c r="J43" s="127">
+        <v>0.2</v>
+      </c>
+      <c r="K43" s="129">
+        <v>44965</v>
+      </c>
+      <c r="L43" s="125">
+        <v>89</v>
+      </c>
+      <c r="M43" s="126">
+        <v>80</v>
+      </c>
+      <c r="N43" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="O43" s="118" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="44" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="51">
-        <v>43</v>
-      </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
+        <v>41</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>161</v>
+      </c>
       <c r="E44" s="51"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="87"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="49"/>
+      <c r="F44" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G44" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="H44" s="128">
+        <v>2</v>
+      </c>
+      <c r="I44" s="128">
+        <v>2</v>
+      </c>
+      <c r="J44" s="127">
+        <v>0.2</v>
+      </c>
+      <c r="K44" s="129">
+        <v>45098</v>
+      </c>
+      <c r="L44" s="125">
+        <v>24</v>
+      </c>
+      <c r="M44" s="126">
+        <v>22</v>
+      </c>
+      <c r="N44" s="118" t="s">
+        <v>33</v>
+      </c>
+      <c r="O44" s="118"/>
     </row>
     <row r="45" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="51">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C45" s="49"/>
       <c r="D45" s="49"/>
       <c r="E45" s="51"/>
       <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
+      <c r="G45" s="130"/>
       <c r="H45" s="74"/>
       <c r="I45" s="74"/>
       <c r="J45" s="74"/>
@@ -8077,7 +8411,7 @@
     </row>
     <row r="46" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="51">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="49"/>
       <c r="D46" s="49"/>
@@ -8095,7 +8429,7 @@
     </row>
     <row r="47" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="51">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C47" s="49"/>
       <c r="D47" s="49"/>
@@ -8113,7 +8447,7 @@
     </row>
     <row r="48" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="51">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="49"/>
       <c r="D48" s="49"/>
@@ -8131,7 +8465,7 @@
     </row>
     <row r="49" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="51">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C49" s="49"/>
       <c r="D49" s="49"/>
@@ -8149,7 +8483,7 @@
     </row>
     <row r="50" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="51">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C50" s="49"/>
       <c r="D50" s="49"/>
@@ -8167,7 +8501,7 @@
     </row>
     <row r="51" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="51">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C51" s="49"/>
       <c r="D51" s="49"/>
@@ -8185,7 +8519,7 @@
     </row>
     <row r="52" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="51">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C52" s="49"/>
       <c r="D52" s="49"/>
@@ -8203,7 +8537,7 @@
     </row>
     <row r="53" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="51">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C53" s="49"/>
       <c r="D53" s="49"/>
@@ -8221,7 +8555,7 @@
     </row>
     <row r="54" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="51">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C54" s="49"/>
       <c r="D54" s="49"/>
@@ -8239,7 +8573,7 @@
     </row>
     <row r="55" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="51">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C55" s="49"/>
       <c r="D55" s="49"/>
@@ -8257,7 +8591,7 @@
     </row>
     <row r="56" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="51">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C56" s="49"/>
       <c r="D56" s="49"/>
@@ -8275,7 +8609,7 @@
     </row>
     <row r="57" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="51">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C57" s="49"/>
       <c r="D57" s="49"/>
@@ -8293,7 +8627,7 @@
     </row>
     <row r="58" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="51">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C58" s="49"/>
       <c r="D58" s="49"/>
@@ -8311,7 +8645,7 @@
     </row>
     <row r="59" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="51">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C59" s="49"/>
       <c r="D59" s="49"/>
@@ -8329,7 +8663,7 @@
     </row>
     <row r="60" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="51">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C60" s="49"/>
       <c r="D60" s="49"/>
@@ -8347,8 +8681,7 @@
     </row>
     <row r="61" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="51">
-        <f t="shared" ref="B61:B64" si="0">B60+1</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C61" s="49"/>
       <c r="D61" s="49"/>
@@ -8366,8 +8699,7 @@
     </row>
     <row r="62" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="51">
-        <f t="shared" si="0"/>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C62" s="49"/>
       <c r="D62" s="49"/>
@@ -8385,8 +8717,7 @@
     </row>
     <row r="63" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="51">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C63" s="49"/>
       <c r="D63" s="49"/>
@@ -8404,8 +8735,7 @@
     </row>
     <row r="64" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="51">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C64" s="49"/>
       <c r="D64" s="49"/>
@@ -8423,8 +8753,7 @@
     </row>
     <row r="65" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="51">
-        <f t="shared" ref="B65:B97" si="1">B64+1</f>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C65" s="49"/>
       <c r="D65" s="49"/>
@@ -8442,8 +8771,7 @@
     </row>
     <row r="66" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="51">
-        <f t="shared" si="1"/>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C66" s="49"/>
       <c r="D66" s="49"/>
@@ -8461,8 +8789,7 @@
     </row>
     <row r="67" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="51">
-        <f t="shared" si="1"/>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C67" s="49"/>
       <c r="D67" s="49"/>
@@ -8480,8 +8807,7 @@
     </row>
     <row r="68" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="51">
-        <f t="shared" si="1"/>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C68" s="49"/>
       <c r="D68" s="49"/>
@@ -8499,8 +8825,7 @@
     </row>
     <row r="69" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="51">
-        <f t="shared" si="1"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C69" s="49"/>
       <c r="D69" s="49"/>
@@ -8518,8 +8843,7 @@
     </row>
     <row r="70" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="51">
-        <f t="shared" si="1"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C70" s="49"/>
       <c r="D70" s="49"/>
@@ -8537,8 +8861,7 @@
     </row>
     <row r="71" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="51">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C71" s="49"/>
       <c r="D71" s="49"/>
@@ -8556,8 +8879,7 @@
     </row>
     <row r="72" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="51">
-        <f t="shared" si="1"/>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C72" s="49"/>
       <c r="D72" s="49"/>
@@ -8575,8 +8897,7 @@
     </row>
     <row r="73" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="51">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C73" s="49"/>
       <c r="D73" s="49"/>
@@ -8594,8 +8915,7 @@
     </row>
     <row r="74" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="51">
-        <f t="shared" si="1"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C74" s="49"/>
       <c r="D74" s="49"/>
@@ -8613,8 +8933,7 @@
     </row>
     <row r="75" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="51">
-        <f t="shared" si="1"/>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C75" s="49"/>
       <c r="D75" s="49"/>
@@ -8632,8 +8951,7 @@
     </row>
     <row r="76" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="51">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C76" s="49"/>
       <c r="D76" s="49"/>
@@ -8651,8 +8969,7 @@
     </row>
     <row r="77" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="51">
-        <f t="shared" si="1"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C77" s="49"/>
       <c r="D77" s="49"/>
@@ -8670,8 +8987,7 @@
     </row>
     <row r="78" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="51">
-        <f t="shared" si="1"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C78" s="49"/>
       <c r="D78" s="49"/>
@@ -8689,8 +9005,7 @@
     </row>
     <row r="79" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="51">
-        <f t="shared" si="1"/>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C79" s="49"/>
       <c r="D79" s="49"/>
@@ -8708,8 +9023,7 @@
     </row>
     <row r="80" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="51">
-        <f t="shared" si="1"/>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C80" s="49"/>
       <c r="D80" s="49"/>
@@ -8727,8 +9041,7 @@
     </row>
     <row r="81" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="51">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C81" s="49"/>
       <c r="D81" s="49"/>
@@ -8746,8 +9059,7 @@
     </row>
     <row r="82" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="51">
-        <f t="shared" si="1"/>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C82" s="49"/>
       <c r="D82" s="49"/>
@@ -8765,8 +9077,7 @@
     </row>
     <row r="83" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="51">
-        <f t="shared" si="1"/>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C83" s="49"/>
       <c r="D83" s="49"/>
@@ -8784,8 +9095,7 @@
     </row>
     <row r="84" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="51">
-        <f t="shared" si="1"/>
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C84" s="49"/>
       <c r="D84" s="49"/>
@@ -8803,8 +9113,7 @@
     </row>
     <row r="85" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="51">
-        <f t="shared" si="1"/>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C85" s="49"/>
       <c r="D85" s="49"/>
@@ -8822,8 +9131,7 @@
     </row>
     <row r="86" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="51">
-        <f t="shared" si="1"/>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C86" s="49"/>
       <c r="D86" s="49"/>
@@ -8841,8 +9149,7 @@
     </row>
     <row r="87" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="51">
-        <f t="shared" si="1"/>
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C87" s="49"/>
       <c r="D87" s="49"/>
@@ -8860,8 +9167,7 @@
     </row>
     <row r="88" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="51">
-        <f t="shared" si="1"/>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C88" s="49"/>
       <c r="D88" s="49"/>
@@ -8879,8 +9185,7 @@
     </row>
     <row r="89" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="51">
-        <f t="shared" si="1"/>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C89" s="49"/>
       <c r="D89" s="49"/>
@@ -8898,8 +9203,7 @@
     </row>
     <row r="90" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="51">
-        <f t="shared" si="1"/>
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C90" s="49"/>
       <c r="D90" s="49"/>
@@ -8917,8 +9221,7 @@
     </row>
     <row r="91" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="51">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C91" s="49"/>
       <c r="D91" s="49"/>
@@ -8936,8 +9239,7 @@
     </row>
     <row r="92" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="51">
-        <f t="shared" si="1"/>
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C92" s="49"/>
       <c r="D92" s="49"/>
@@ -8955,8 +9257,7 @@
     </row>
     <row r="93" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="51">
-        <f t="shared" si="1"/>
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C93" s="49"/>
       <c r="D93" s="49"/>
@@ -8974,8 +9275,7 @@
     </row>
     <row r="94" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="51">
-        <f t="shared" si="1"/>
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C94" s="49"/>
       <c r="D94" s="49"/>
@@ -8993,8 +9293,7 @@
     </row>
     <row r="95" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="51">
-        <f t="shared" si="1"/>
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C95" s="49"/>
       <c r="D95" s="49"/>
@@ -9012,8 +9311,7 @@
     </row>
     <row r="96" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="51">
-        <f t="shared" si="1"/>
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C96" s="49"/>
       <c r="D96" s="49"/>
@@ -9031,8 +9329,7 @@
     </row>
     <row r="97" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="51">
-        <f t="shared" si="1"/>
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C97" s="49"/>
       <c r="D97" s="49"/>
@@ -9048,35 +9345,129 @@
       <c r="N97" s="49"/>
       <c r="O97" s="49"/>
     </row>
-    <row r="98" spans="2:15" s="92" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="88"/>
-      <c r="C98" s="88" t="s">
+    <row r="98" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="51">
+        <v>84</v>
+      </c>
+      <c r="C98" s="49"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49"/>
+      <c r="H98" s="74"/>
+      <c r="I98" s="74"/>
+      <c r="J98" s="74"/>
+      <c r="K98" s="50"/>
+      <c r="L98" s="49"/>
+      <c r="M98" s="87"/>
+      <c r="N98" s="49"/>
+      <c r="O98" s="49"/>
+    </row>
+    <row r="99" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="51">
+        <f t="shared" ref="B99:B102" si="0">B98+1</f>
+        <v>85</v>
+      </c>
+      <c r="C99" s="49"/>
+      <c r="D99" s="49"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="74"/>
+      <c r="I99" s="74"/>
+      <c r="J99" s="74"/>
+      <c r="K99" s="50"/>
+      <c r="L99" s="49"/>
+      <c r="M99" s="87"/>
+      <c r="N99" s="49"/>
+      <c r="O99" s="49"/>
+    </row>
+    <row r="100" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="51">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="C100" s="49"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="51"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="74"/>
+      <c r="I100" s="74"/>
+      <c r="J100" s="74"/>
+      <c r="K100" s="50"/>
+      <c r="L100" s="49"/>
+      <c r="M100" s="87"/>
+      <c r="N100" s="49"/>
+      <c r="O100" s="49"/>
+    </row>
+    <row r="101" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="51">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="C101" s="49"/>
+      <c r="D101" s="49"/>
+      <c r="E101" s="51"/>
+      <c r="F101" s="49"/>
+      <c r="G101" s="49"/>
+      <c r="H101" s="74"/>
+      <c r="I101" s="74"/>
+      <c r="J101" s="74"/>
+      <c r="K101" s="50"/>
+      <c r="L101" s="49"/>
+      <c r="M101" s="87"/>
+      <c r="N101" s="49"/>
+      <c r="O101" s="49"/>
+    </row>
+    <row r="102" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="51">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="C102" s="49"/>
+      <c r="D102" s="49"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="49"/>
+      <c r="G102" s="49"/>
+      <c r="H102" s="74"/>
+      <c r="I102" s="74"/>
+      <c r="J102" s="74"/>
+      <c r="K102" s="50"/>
+      <c r="L102" s="49"/>
+      <c r="M102" s="87"/>
+      <c r="N102" s="49"/>
+      <c r="O102" s="49"/>
+    </row>
+    <row r="103" spans="2:15" s="92" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="88"/>
+      <c r="C103" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="D98" s="88"/>
-      <c r="E98" s="88"/>
-      <c r="F98" s="88"/>
-      <c r="G98" s="88"/>
-      <c r="H98" s="89">
-        <f>SUM(H4:H97)</f>
-        <v>96</v>
-      </c>
-      <c r="I98" s="89">
-        <f t="shared" ref="I98:J98" si="2">SUM(I4:I97)</f>
-        <v>72</v>
-      </c>
-      <c r="J98" s="89">
-        <f t="shared" si="2"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="K98" s="90"/>
-      <c r="L98" s="88"/>
-      <c r="M98" s="91"/>
-      <c r="N98" s="88"/>
-      <c r="O98" s="88"/>
-    </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K102" s="75"/>
+      <c r="D103" s="88"/>
+      <c r="E103" s="88"/>
+      <c r="F103" s="88"/>
+      <c r="G103" s="88"/>
+      <c r="H103" s="89">
+        <f>SUM(H4:H102)</f>
+        <v>92</v>
+      </c>
+      <c r="I103" s="89">
+        <f t="shared" ref="I103:J103" si="1">SUM(I4:I102)</f>
+        <v>71</v>
+      </c>
+      <c r="J103" s="89">
+        <f t="shared" si="1"/>
+        <v>8.7999999999999972</v>
+      </c>
+      <c r="K103" s="90"/>
+      <c r="L103" s="88"/>
+      <c r="M103" s="91"/>
+      <c r="N103" s="88"/>
+      <c r="O103" s="88"/>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K107" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
